--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_2_29.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_2_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2036137.55544165</v>
+        <v>2035740.962587972</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>261098.024727525</v>
+        <v>261098.0247275246</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736557</v>
+        <v>504792.0292736552</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>10.00967878293136</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G2" t="n">
-        <v>411.9429466803539</v>
+        <v>233.5009637439626</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>130.8556219963525</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -747,10 +747,10 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>89.23753593542919</v>
       </c>
       <c r="T3" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
         <v>226.1116663261494</v>
@@ -801,7 +801,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
-        <v>30.23920527412206</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
         <v>190.5961130869169</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C4" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>65.10198057270765</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>177.7882866501086</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +902,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
-        <v>11.94294668035388</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>278.3516700867312</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>165.1415580035427</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0866360314548</v>
+        <v>128.9930395301019</v>
       </c>
       <c r="D6" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>107.9103771062831</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
         <v>186.7982527956746</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.8116815448651</v>
       </c>
       <c r="I7" t="n">
-        <v>25.5578537124857</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>30.44817077468238</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
-        <v>11.94294668035388</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H8" t="n">
         <v>329.4930616586638</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>158.9998633238628</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1218,16 +1218,16 @@
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>91.6622655999074</v>
       </c>
       <c r="I9" t="n">
         <v>67.69846245683961</v>
@@ -1260,10 +1260,10 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>216.3098444776729</v>
@@ -1272,7 +1272,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>214.2162509886232</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
         <v>195.9378182409833</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>50.77333445464513</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>30.84765070733263</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>276.6729386146303</v>
+        <v>276.6729386146302</v>
       </c>
       <c r="C11" t="n">
-        <v>176.0345301738448</v>
+        <v>264.6842555723119</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>156.8296899343001</v>
       </c>
       <c r="E11" t="n">
         <v>277.4076971867455</v>
@@ -1388,7 +1388,7 @@
         <v>216.0628961504551</v>
       </c>
       <c r="I11" t="n">
-        <v>57.65886129508324</v>
+        <v>57.65886129508323</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>245.4794153327663</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
-        <v>133.7423235950733</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
         <v>137.45025063969</v>
@@ -1461,10 +1461,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>127.4412149769483</v>
+        <v>115.588589170007</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I12" t="n">
         <v>67.69846245683961</v>
@@ -1500,7 +1500,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T12" t="n">
-        <v>186.7982527956746</v>
+        <v>73.36808728746593</v>
       </c>
       <c r="U12" t="n">
         <v>216.3098444776729</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>68.28964948932732</v>
+        <v>68.2896494893273</v>
       </c>
       <c r="C13" t="n">
-        <v>54.4896443347278</v>
+        <v>54.48964433472779</v>
       </c>
       <c r="D13" t="n">
-        <v>38.11100873230619</v>
+        <v>38.11100873230617</v>
       </c>
       <c r="E13" t="n">
-        <v>37.05875858808564</v>
+        <v>37.05875858808562</v>
       </c>
       <c r="F13" t="n">
-        <v>37.52568291627195</v>
+        <v>37.52568291627193</v>
       </c>
       <c r="G13" t="n">
-        <v>53.80038563761978</v>
+        <v>53.80038563761977</v>
       </c>
       <c r="H13" t="n">
-        <v>44.3487532603102</v>
+        <v>44.34875326031019</v>
       </c>
       <c r="I13" t="n">
-        <v>29.33084844513955</v>
+        <v>29.33084844513954</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.59639806355686</v>
+        <v>34.59639806355636</v>
       </c>
       <c r="S13" t="n">
-        <v>98.14249946214061</v>
+        <v>98.14249946214059</v>
       </c>
       <c r="T13" t="n">
         <v>117.4169981442692</v>
@@ -1591,7 +1591,7 @@
         <v>169.8646719595662</v>
       </c>
       <c r="X13" t="n">
-        <v>115.5097739553686</v>
+        <v>115.5097739553693</v>
       </c>
       <c r="Y13" t="n">
         <v>106.384641711437</v>
@@ -1613,7 +1613,7 @@
         <v>255.6655596168399</v>
       </c>
       <c r="E14" t="n">
-        <v>277.4076971867455</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>296.5795132747226</v>
@@ -1622,10 +1622,10 @@
         <v>298.5127811721451</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I14" t="n">
-        <v>57.65886129508321</v>
+        <v>27.50994465687303</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.92652010774084</v>
+        <v>71.92652010774081</v>
       </c>
       <c r="T14" t="n">
-        <v>108.6851912980902</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>138.9063174149372</v>
+        <v>138.9063174149371</v>
       </c>
       <c r="V14" t="n">
-        <v>56.6971041563728</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>245.4794153327662</v>
       </c>
       <c r="X14" t="n">
-        <v>264.7796735655128</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>276.1762713617116</v>
       </c>
     </row>
     <row r="15">
@@ -1698,7 +1698,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>127.4412149769483</v>
+        <v>14.0110494687395</v>
       </c>
       <c r="H15" t="n">
         <v>98.93847887876893</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.18642621600367</v>
+        <v>47.33380040906273</v>
       </c>
       <c r="S15" t="n">
-        <v>37.84132660917838</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T15" t="n">
         <v>186.7982527956746</v>
@@ -1752,7 +1752,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y15" t="n">
-        <v>178.743487279975</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>68.28964948932729</v>
+        <v>68.28964948932726</v>
       </c>
       <c r="C16" t="n">
-        <v>54.48964433472777</v>
+        <v>54.48964433472774</v>
       </c>
       <c r="D16" t="n">
-        <v>38.11100873230616</v>
+        <v>38.11100873230613</v>
       </c>
       <c r="E16" t="n">
-        <v>37.05875858808561</v>
+        <v>37.05875858808558</v>
       </c>
       <c r="F16" t="n">
-        <v>37.52568291627192</v>
+        <v>37.52568291627189</v>
       </c>
       <c r="G16" t="n">
-        <v>53.80038563761975</v>
+        <v>53.80038563761973</v>
       </c>
       <c r="H16" t="n">
-        <v>44.34875326031018</v>
+        <v>44.34875326031015</v>
       </c>
       <c r="I16" t="n">
-        <v>29.33084844513952</v>
+        <v>29.33084844513949</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.59639806355683</v>
+        <v>34.5963980635568</v>
       </c>
       <c r="S16" t="n">
-        <v>98.14249946214058</v>
+        <v>98.14249946214055</v>
       </c>
       <c r="T16" t="n">
         <v>117.4169981442692</v>
@@ -1828,7 +1828,7 @@
         <v>169.8646719595661</v>
       </c>
       <c r="X16" t="n">
-        <v>115.5097739553693</v>
+        <v>115.5097739553692</v>
       </c>
       <c r="Y16" t="n">
         <v>106.3846417114369</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>216.4199433826099</v>
+        <v>216.4199433826098</v>
       </c>
       <c r="C17" t="n">
         <v>204.4312603402915</v>
@@ -1850,7 +1850,7 @@
         <v>195.4125643848195</v>
       </c>
       <c r="E17" t="n">
-        <v>217.154701954725</v>
+        <v>217.1547019547251</v>
       </c>
       <c r="F17" t="n">
         <v>236.3265180427022</v>
@@ -1859,7 +1859,7 @@
         <v>238.2597859401247</v>
       </c>
       <c r="H17" t="n">
-        <v>155.8099009184346</v>
+        <v>155.8099009184347</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>11.67352487572037</v>
+        <v>11.67352487572043</v>
       </c>
       <c r="T17" t="n">
-        <v>48.43219606606974</v>
+        <v>48.43219606606979</v>
       </c>
       <c r="U17" t="n">
-        <v>78.6533221829167</v>
+        <v>78.65332218291675</v>
       </c>
       <c r="V17" t="n">
         <v>159.9263206227889</v>
@@ -1910,7 +1910,7 @@
         <v>204.5266783334924</v>
       </c>
       <c r="Y17" t="n">
-        <v>215.9232761296911</v>
+        <v>215.9232761296912</v>
       </c>
     </row>
     <row r="18">
@@ -1923,7 +1923,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C18" t="n">
-        <v>34.80384471630433</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D18" t="n">
         <v>137.45025063969</v>
@@ -1974,7 +1974,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T18" t="n">
-        <v>186.7982527956746</v>
+        <v>61.51546148052477</v>
       </c>
       <c r="U18" t="n">
         <v>216.3098444776729</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.036654257306822</v>
+        <v>8.036654257306878</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>17.56842243099221</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>37.88950423012011</v>
+        <v>55.45792666111198</v>
       </c>
       <c r="T19" t="n">
-        <v>57.16400291224875</v>
+        <v>57.1640029122488</v>
       </c>
       <c r="U19" t="n">
-        <v>110.6351763755619</v>
+        <v>110.635176375562</v>
       </c>
       <c r="V19" t="n">
-        <v>84.44479065693241</v>
+        <v>84.44479065693247</v>
       </c>
       <c r="W19" t="n">
         <v>109.6116767275457</v>
       </c>
       <c r="X19" t="n">
-        <v>55.25677872334879</v>
+        <v>55.25677872334884</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.13164647941647</v>
+        <v>46.13164647941653</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>216.4199433826097</v>
+        <v>216.4199433826098</v>
       </c>
       <c r="C20" t="n">
         <v>204.4312603402915</v>
@@ -2087,7 +2087,7 @@
         <v>195.4125643848195</v>
       </c>
       <c r="E20" t="n">
-        <v>217.154701954725</v>
+        <v>217.1547019547251</v>
       </c>
       <c r="F20" t="n">
         <v>236.3265180427022</v>
@@ -2096,7 +2096,7 @@
         <v>238.2597859401247</v>
       </c>
       <c r="H20" t="n">
-        <v>155.8099009184346</v>
+        <v>155.8099009184347</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>11.67352487572037</v>
+        <v>11.67352487572043</v>
       </c>
       <c r="T20" t="n">
-        <v>48.43219606606974</v>
+        <v>48.43219606606979</v>
       </c>
       <c r="U20" t="n">
-        <v>78.6533221829167</v>
+        <v>78.65332218291675</v>
       </c>
       <c r="V20" t="n">
         <v>159.9263206227889</v>
@@ -2147,7 +2147,7 @@
         <v>204.5266783334924</v>
       </c>
       <c r="Y20" t="n">
-        <v>215.9232761296911</v>
+        <v>215.9232761296912</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I21" t="n">
-        <v>67.69846245683961</v>
+        <v>1.602097357693465</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>151.2714921173871</v>
@@ -2217,7 +2217,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V21" t="n">
-        <v>100.828875010999</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
         <v>238.9027100790231</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8.036654257306822</v>
+        <v>8.036654257306878</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>17.56842243099221</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>37.88950423012011</v>
+        <v>55.45792666111198</v>
       </c>
       <c r="T22" t="n">
-        <v>57.16400291224875</v>
+        <v>57.1640029122488</v>
       </c>
       <c r="U22" t="n">
-        <v>110.6351763755619</v>
+        <v>110.635176375562</v>
       </c>
       <c r="V22" t="n">
-        <v>84.44479065693241</v>
+        <v>84.44479065693247</v>
       </c>
       <c r="W22" t="n">
         <v>109.6116767275457</v>
       </c>
       <c r="X22" t="n">
-        <v>55.25677872334879</v>
+        <v>55.25677872334884</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.13164647941647</v>
+        <v>46.13164647941653</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>216.4199433826097</v>
+        <v>216.4199433826098</v>
       </c>
       <c r="C23" t="n">
         <v>204.4312603402915</v>
@@ -2324,7 +2324,7 @@
         <v>195.4125643848195</v>
       </c>
       <c r="E23" t="n">
-        <v>217.154701954725</v>
+        <v>217.1547019547251</v>
       </c>
       <c r="F23" t="n">
         <v>236.3265180427022</v>
@@ -2333,7 +2333,7 @@
         <v>238.2597859401247</v>
       </c>
       <c r="H23" t="n">
-        <v>155.8099009184346</v>
+        <v>155.8099009184347</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>11.67352487572037</v>
+        <v>11.67352487572043</v>
       </c>
       <c r="T23" t="n">
-        <v>48.43219606606974</v>
+        <v>48.43219606606979</v>
       </c>
       <c r="U23" t="n">
-        <v>78.6533221829167</v>
+        <v>78.65332218291675</v>
       </c>
       <c r="V23" t="n">
         <v>159.9263206227889</v>
@@ -2384,7 +2384,7 @@
         <v>204.5266783334924</v>
       </c>
       <c r="Y23" t="n">
-        <v>215.9232761296911</v>
+        <v>215.9232761296912</v>
       </c>
     </row>
     <row r="24">
@@ -2409,7 +2409,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>2.158423661797781</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H24" t="n">
         <v>98.93847887876893</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>151.2714921173871</v>
+        <v>85.17512701824116</v>
       </c>
       <c r="T24" t="n">
         <v>186.7982527956746</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8.036654257306822</v>
+        <v>25.60507668829869</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>37.88950423012011</v>
+        <v>37.88950423012017</v>
       </c>
       <c r="T25" t="n">
-        <v>74.73242534324099</v>
+        <v>57.1640029122488</v>
       </c>
       <c r="U25" t="n">
-        <v>110.6351763755619</v>
+        <v>110.635176375562</v>
       </c>
       <c r="V25" t="n">
-        <v>84.44479065693241</v>
+        <v>84.44479065693247</v>
       </c>
       <c r="W25" t="n">
         <v>109.6116767275457</v>
       </c>
       <c r="X25" t="n">
-        <v>55.25677872334879</v>
+        <v>55.25677872334884</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.13164647941647</v>
+        <v>46.13164647941653</v>
       </c>
     </row>
     <row r="26">
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>276.6729386146302</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>36.46968593851938</v>
+        <v>264.6842555723119</v>
       </c>
       <c r="D26" t="n">
         <v>255.6655596168399</v>
@@ -2573,7 +2573,7 @@
         <v>216.0628961504551</v>
       </c>
       <c r="I26" t="n">
-        <v>57.65886129508318</v>
+        <v>57.6588612950832</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>71.92652010774081</v>
+        <v>71.92652010774083</v>
       </c>
       <c r="T26" t="n">
         <v>108.6851912980902</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>48.45836898083758</v>
       </c>
       <c r="V26" t="n">
         <v>220.1793158548093</v>
@@ -2640,7 +2640,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E27" t="n">
-        <v>130.9922385581942</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F27" t="n">
         <v>133.3468600696244</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S27" t="n">
         <v>151.2714921173871</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.28964948932726</v>
+        <v>68.28964948932727</v>
       </c>
       <c r="C28" t="n">
-        <v>54.48964433472774</v>
+        <v>54.48964433472776</v>
       </c>
       <c r="D28" t="n">
-        <v>38.11100873230613</v>
+        <v>38.11100873230615</v>
       </c>
       <c r="E28" t="n">
-        <v>37.05875858808558</v>
+        <v>37.0587585880856</v>
       </c>
       <c r="F28" t="n">
-        <v>37.52568291627189</v>
+        <v>37.5256829162719</v>
       </c>
       <c r="G28" t="n">
-        <v>53.80038563761973</v>
+        <v>53.80038563761974</v>
       </c>
       <c r="H28" t="n">
-        <v>44.34875326031015</v>
+        <v>44.34875326031016</v>
       </c>
       <c r="I28" t="n">
-        <v>29.33084844513949</v>
+        <v>29.33084844513951</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.5963980635568</v>
+        <v>34.59639806355682</v>
       </c>
       <c r="S28" t="n">
-        <v>98.14249946214055</v>
+        <v>98.14249946214056</v>
       </c>
       <c r="T28" t="n">
         <v>117.4169981442692</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>276.6729386146302</v>
       </c>
       <c r="C29" t="n">
         <v>264.6842555723119</v>
       </c>
       <c r="D29" t="n">
-        <v>255.6655596168399</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>186.9597487526445</v>
+        <v>277.4076971867455</v>
       </c>
       <c r="F29" t="n">
-        <v>296.5795132747226</v>
+        <v>296.5795132747227</v>
       </c>
       <c r="G29" t="n">
-        <v>298.5127811721451</v>
+        <v>298.5127811721452</v>
       </c>
       <c r="H29" t="n">
         <v>216.0628961504551</v>
       </c>
       <c r="I29" t="n">
-        <v>57.65886129508321</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>71.92652010774084</v>
+        <v>71.92652010774086</v>
       </c>
       <c r="T29" t="n">
         <v>108.6851912980902</v>
       </c>
       <c r="U29" t="n">
-        <v>138.9063174149372</v>
+        <v>85.10985127813042</v>
       </c>
       <c r="V29" t="n">
         <v>220.1793158548093</v>
       </c>
       <c r="W29" t="n">
-        <v>245.4794153327662</v>
+        <v>245.4794153327663</v>
       </c>
       <c r="X29" t="n">
-        <v>264.7796735655128</v>
+        <v>264.7796735655129</v>
       </c>
       <c r="Y29" t="n">
-        <v>276.1762713617116</v>
+        <v>276.1762713617117</v>
       </c>
     </row>
     <row r="30">
@@ -2886,7 +2886,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H30" t="n">
-        <v>84.37298759326566</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I30" t="n">
         <v>67.69846245683961</v>
@@ -2919,7 +2919,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S30" t="n">
-        <v>151.2714921173871</v>
+        <v>136.7060008318836</v>
       </c>
       <c r="T30" t="n">
         <v>186.7982527956746</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.28964948932729</v>
+        <v>68.2896494893273</v>
       </c>
       <c r="C31" t="n">
-        <v>54.48964433472777</v>
+        <v>54.48964433472779</v>
       </c>
       <c r="D31" t="n">
-        <v>38.11100873230616</v>
+        <v>38.11100873230617</v>
       </c>
       <c r="E31" t="n">
-        <v>37.05875858808561</v>
+        <v>37.05875858808562</v>
       </c>
       <c r="F31" t="n">
-        <v>37.52568291627192</v>
+        <v>37.52568291627193</v>
       </c>
       <c r="G31" t="n">
-        <v>53.80038563761975</v>
+        <v>53.80038563761977</v>
       </c>
       <c r="H31" t="n">
-        <v>44.34875326031018</v>
+        <v>44.34875326031019</v>
       </c>
       <c r="I31" t="n">
-        <v>29.33084844513952</v>
+        <v>29.33084844513954</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.59639806355683</v>
+        <v>34.59639806355685</v>
       </c>
       <c r="S31" t="n">
-        <v>98.14249946214058</v>
+        <v>98.14249946214059</v>
       </c>
       <c r="T31" t="n">
         <v>117.4169981442692</v>
@@ -3010,13 +3010,13 @@
         <v>144.6977858889529</v>
       </c>
       <c r="W31" t="n">
-        <v>169.8646719595661</v>
+        <v>169.8646719595662</v>
       </c>
       <c r="X31" t="n">
         <v>115.5097739553693</v>
       </c>
       <c r="Y31" t="n">
-        <v>106.3846417114369</v>
+        <v>106.384641711437</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>245.9460223007792</v>
+        <v>245.9460223007793</v>
       </c>
       <c r="C32" t="n">
-        <v>233.9573392584609</v>
+        <v>233.9573392584611</v>
       </c>
       <c r="D32" t="n">
-        <v>224.9386433029889</v>
+        <v>224.938643302989</v>
       </c>
       <c r="E32" t="n">
-        <v>246.6807808728944</v>
+        <v>246.6807808728946</v>
       </c>
       <c r="F32" t="n">
-        <v>265.8525969608716</v>
+        <v>265.8525969608718</v>
       </c>
       <c r="G32" t="n">
-        <v>267.7858648582941</v>
+        <v>267.7858648582943</v>
       </c>
       <c r="H32" t="n">
-        <v>185.3359798366041</v>
+        <v>185.3359798366042</v>
       </c>
       <c r="I32" t="n">
-        <v>26.93194498123219</v>
+        <v>26.93194498123233</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>41.19960379388982</v>
+        <v>41.19960379388996</v>
       </c>
       <c r="T32" t="n">
-        <v>77.95827498423918</v>
+        <v>77.95827498423932</v>
       </c>
       <c r="U32" t="n">
-        <v>108.1794011010861</v>
+        <v>108.1794011010863</v>
       </c>
       <c r="V32" t="n">
-        <v>189.4523995409583</v>
+        <v>189.4523995409585</v>
       </c>
       <c r="W32" t="n">
-        <v>214.7524990189152</v>
+        <v>214.7524990189154</v>
       </c>
       <c r="X32" t="n">
-        <v>234.0527572516618</v>
+        <v>234.052757251662</v>
       </c>
       <c r="Y32" t="n">
-        <v>245.4493550478606</v>
+        <v>245.4493550478607</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I33" t="n">
-        <v>53.13297117133602</v>
+        <v>53.13297117133644</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>37.56273317547627</v>
+        <v>37.56273317547641</v>
       </c>
       <c r="C34" t="n">
-        <v>23.76272802087675</v>
+        <v>23.76272802087689</v>
       </c>
       <c r="D34" t="n">
-        <v>7.38409241845514</v>
+        <v>7.384092418455282</v>
       </c>
       <c r="E34" t="n">
-        <v>6.331842274234589</v>
+        <v>6.331842274234731</v>
       </c>
       <c r="F34" t="n">
-        <v>6.798766602420898</v>
+        <v>6.79876660242104</v>
       </c>
       <c r="G34" t="n">
-        <v>23.07346932376873</v>
+        <v>23.07346932376888</v>
       </c>
       <c r="H34" t="n">
-        <v>13.62183694645915</v>
+        <v>13.6218369464593</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>3.869481749705812</v>
+        <v>3.869481749705955</v>
       </c>
       <c r="S34" t="n">
-        <v>67.41558314828956</v>
+        <v>67.4155831482897</v>
       </c>
       <c r="T34" t="n">
-        <v>86.69008183041819</v>
+        <v>86.69008183041834</v>
       </c>
       <c r="U34" t="n">
-        <v>140.1612552937314</v>
+        <v>140.1612552937315</v>
       </c>
       <c r="V34" t="n">
-        <v>113.9708695751019</v>
+        <v>113.970869575102</v>
       </c>
       <c r="W34" t="n">
-        <v>139.1377556457151</v>
+        <v>139.1377556457153</v>
       </c>
       <c r="X34" t="n">
-        <v>84.78285764151823</v>
+        <v>84.78285764151838</v>
       </c>
       <c r="Y34" t="n">
-        <v>75.65772539758592</v>
+        <v>75.65772539758606</v>
       </c>
     </row>
     <row r="35">
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S36" t="n">
         <v>151.2714921173871</v>
@@ -3411,7 +3411,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y36" t="n">
-        <v>176.0306218014135</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="37">
@@ -3636,7 +3636,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U39" t="n">
-        <v>216.3098444776729</v>
+        <v>201.7443531921692</v>
       </c>
       <c r="V39" t="n">
         <v>226.1116663261494</v>
@@ -3648,7 +3648,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y39" t="n">
-        <v>176.0306218014126</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="40">
@@ -3825,7 +3825,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E42" t="n">
-        <v>130.9922385581937</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F42" t="n">
         <v>133.3468600696244</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S42" t="n">
         <v>151.2714921173871</v>
@@ -4034,7 +4034,7 @@
         <v>86.20741778068896</v>
       </c>
       <c r="V44" t="n">
-        <v>167.4804162205623</v>
+        <v>167.4804162205611</v>
       </c>
       <c r="W44" t="n">
         <v>192.780515698518</v>
@@ -4074,7 +4074,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I45" t="n">
-        <v>53.13297117133634</v>
+        <v>53.1329711713359</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>639.1229595314867</v>
+        <v>690.1017375722108</v>
       </c>
       <c r="C2" t="n">
-        <v>639.1229595314867</v>
+        <v>690.1017375722108</v>
       </c>
       <c r="D2" t="n">
-        <v>639.1229595314867</v>
+        <v>690.1017375722108</v>
       </c>
       <c r="E2" t="n">
-        <v>639.1229595314867</v>
+        <v>690.1017375722108</v>
       </c>
       <c r="F2" t="n">
-        <v>629.0121728820611</v>
+        <v>275.9505468823812</v>
       </c>
       <c r="G2" t="n">
-        <v>212.9081863362491</v>
+        <v>40.09098754504515</v>
       </c>
       <c r="H2" t="n">
-        <v>212.9081863362491</v>
+        <v>40.09098754504515</v>
       </c>
       <c r="I2" t="n">
         <v>40.09098754504515</v>
       </c>
       <c r="J2" t="n">
-        <v>40.09098754504515</v>
+        <v>112.0895318178508</v>
       </c>
       <c r="K2" t="n">
-        <v>280.2313595898279</v>
+        <v>352.2299038626336</v>
       </c>
       <c r="L2" t="n">
-        <v>628.1167326747741</v>
+        <v>700.1152769475798</v>
       </c>
       <c r="M2" t="n">
-        <v>1021.355898927862</v>
+        <v>1093.354443200668</v>
       </c>
       <c r="N2" t="n">
-        <v>1399.687257615578</v>
+        <v>1376.955642636834</v>
       </c>
       <c r="O2" t="n">
-        <v>1704.691842088412</v>
+        <v>1681.960227109668</v>
       </c>
       <c r="P2" t="n">
-        <v>1932.848738544465</v>
+        <v>1910.117123565721</v>
       </c>
       <c r="Q2" t="n">
         <v>2004.549377252258</v>
@@ -4355,25 +4355,25 @@
         <v>1913.911090748111</v>
       </c>
       <c r="S2" t="n">
-        <v>1726.682115378465</v>
+        <v>1913.911090748111</v>
       </c>
       <c r="T2" t="n">
-        <v>1502.323169109476</v>
+        <v>1689.552144479122</v>
       </c>
       <c r="U2" t="n">
-        <v>1502.323169109476</v>
+        <v>1434.666808193116</v>
       </c>
       <c r="V2" t="n">
-        <v>1165.343895005417</v>
+        <v>1434.666808193116</v>
       </c>
       <c r="W2" t="n">
-        <v>1165.343895005417</v>
+        <v>1072.131878050717</v>
       </c>
       <c r="X2" t="n">
-        <v>1033.166499049506</v>
+        <v>690.1017375722108</v>
       </c>
       <c r="Y2" t="n">
-        <v>1033.166499049506</v>
+        <v>690.1017375722108</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>751.0836052838482</v>
+        <v>487.6613072570071</v>
       </c>
       <c r="C3" t="n">
-        <v>589.3799325248029</v>
+        <v>325.9576344979619</v>
       </c>
       <c r="D3" t="n">
-        <v>450.541295515015</v>
+        <v>187.1189974881739</v>
       </c>
       <c r="E3" t="n">
-        <v>303.5132855718862</v>
+        <v>40.09098754504515</v>
       </c>
       <c r="F3" t="n">
-        <v>168.8194875217606</v>
+        <v>40.09098754504515</v>
       </c>
       <c r="G3" t="n">
         <v>40.09098754504515</v>
@@ -4413,10 +4413,10 @@
         <v>329.83568663834</v>
       </c>
       <c r="L3" t="n">
-        <v>656.3559065368813</v>
+        <v>695.6575318084556</v>
       </c>
       <c r="M3" t="n">
-        <v>656.3559065368813</v>
+        <v>695.6575318084556</v>
       </c>
       <c r="N3" t="n">
         <v>1152.481877406815</v>
@@ -4431,28 +4431,28 @@
         <v>2004.549377252258</v>
       </c>
       <c r="R3" t="n">
-        <v>1944.765108347203</v>
+        <v>2004.549377252258</v>
       </c>
       <c r="S3" t="n">
-        <v>1791.965621359943</v>
+        <v>1914.410452064956</v>
       </c>
       <c r="T3" t="n">
-        <v>1603.280517525929</v>
+        <v>1725.725348230941</v>
       </c>
       <c r="U3" t="n">
-        <v>1603.280517525929</v>
+        <v>1507.230555829251</v>
       </c>
       <c r="V3" t="n">
-        <v>1374.884894974263</v>
+        <v>1278.834933277585</v>
       </c>
       <c r="W3" t="n">
-        <v>1133.569026207573</v>
+        <v>1037.519064510895</v>
       </c>
       <c r="X3" t="n">
-        <v>1103.02437441553</v>
+        <v>839.6020763886892</v>
       </c>
       <c r="Y3" t="n">
-        <v>910.5030480651092</v>
+        <v>647.080750038268</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>572.1502327909776</v>
+        <v>209.0107361771952</v>
       </c>
       <c r="C4" t="n">
-        <v>402.5342632526579</v>
+        <v>209.0107361771952</v>
       </c>
       <c r="D4" t="n">
-        <v>402.5342632526579</v>
+        <v>209.0107361771952</v>
       </c>
       <c r="E4" t="n">
-        <v>336.7746869165895</v>
+        <v>209.0107361771952</v>
       </c>
       <c r="F4" t="n">
-        <v>184.2940319423666</v>
+        <v>209.0107361771952</v>
       </c>
       <c r="G4" t="n">
-        <v>184.2940319423666</v>
+        <v>40.09098754504515</v>
       </c>
       <c r="H4" t="n">
-        <v>184.2940319423666</v>
+        <v>40.09098754504515</v>
       </c>
       <c r="I4" t="n">
         <v>40.09098754504515</v>
@@ -4531,7 +4531,7 @@
         <v>572.1502327909776</v>
       </c>
       <c r="Y4" t="n">
-        <v>572.1502327909776</v>
+        <v>392.566104861575</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4541,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1335.513514560443</v>
+        <v>1120.29302863097</v>
       </c>
       <c r="C5" t="n">
-        <v>1335.513514560443</v>
+        <v>1120.29302863097</v>
       </c>
       <c r="D5" t="n">
-        <v>962.6895497876667</v>
+        <v>747.4690638581931</v>
       </c>
       <c r="E5" t="n">
-        <v>567.9038298937735</v>
+        <v>747.4690638581931</v>
       </c>
       <c r="F5" t="n">
-        <v>557.7930432443479</v>
+        <v>737.3582772087675</v>
       </c>
       <c r="G5" t="n">
-        <v>545.7294607389399</v>
+        <v>321.2542906629555</v>
       </c>
       <c r="H5" t="n">
-        <v>212.9081863362491</v>
+        <v>40.09098754504515</v>
       </c>
       <c r="I5" t="n">
         <v>40.09098754504515</v>
       </c>
       <c r="J5" t="n">
-        <v>112.0895318178508</v>
+        <v>40.09098754504515</v>
       </c>
       <c r="K5" t="n">
-        <v>352.2299038626336</v>
+        <v>280.2313595898279</v>
       </c>
       <c r="L5" t="n">
-        <v>700.1152769475798</v>
+        <v>628.1167326747741</v>
       </c>
       <c r="M5" t="n">
-        <v>998.6242839491179</v>
+        <v>1021.355898927862</v>
       </c>
       <c r="N5" t="n">
-        <v>1376.955642636834</v>
+        <v>1399.687257615578</v>
       </c>
       <c r="O5" t="n">
-        <v>1681.960227109667</v>
+        <v>1704.691842088412</v>
       </c>
       <c r="P5" t="n">
-        <v>1910.11712356572</v>
+        <v>1932.848738544465</v>
       </c>
       <c r="Q5" t="n">
         <v>2004.549377252258</v>
@@ -4598,19 +4598,19 @@
         <v>1502.323169109476</v>
       </c>
       <c r="U5" t="n">
-        <v>1335.513514560443</v>
+        <v>1502.323169109476</v>
       </c>
       <c r="V5" t="n">
-        <v>1335.513514560443</v>
+        <v>1502.323169109476</v>
       </c>
       <c r="W5" t="n">
-        <v>1335.513514560443</v>
+        <v>1502.323169109476</v>
       </c>
       <c r="X5" t="n">
-        <v>1335.513514560443</v>
+        <v>1120.29302863097</v>
       </c>
       <c r="Y5" t="n">
-        <v>1335.513514560443</v>
+        <v>1120.29302863097</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>409.0155826238174</v>
+        <v>524.6359193332563</v>
       </c>
       <c r="C6" t="n">
-        <v>247.3119098647721</v>
+        <v>394.3399198079009</v>
       </c>
       <c r="D6" t="n">
-        <v>108.4732728549842</v>
+        <v>255.5012827981129</v>
       </c>
       <c r="E6" t="n">
         <v>108.4732728549842</v>
@@ -4650,46 +4650,46 @@
         <v>269.5815401052338</v>
       </c>
       <c r="L6" t="n">
-        <v>473.4184723023521</v>
+        <v>635.4033852753494</v>
       </c>
       <c r="M6" t="n">
-        <v>958.4518258125786</v>
+        <v>814.1275363224759</v>
       </c>
       <c r="N6" t="n">
-        <v>1454.577796682512</v>
+        <v>1310.25350719241</v>
       </c>
       <c r="O6" t="n">
-        <v>1846.777747466663</v>
+        <v>1702.45345797656</v>
       </c>
       <c r="P6" t="n">
-        <v>1846.777747466663</v>
+        <v>2004.549377252258</v>
       </c>
       <c r="Q6" t="n">
         <v>2004.549377252258</v>
       </c>
       <c r="R6" t="n">
-        <v>1944.765108347203</v>
+        <v>1944.765108347204</v>
       </c>
       <c r="S6" t="n">
-        <v>1835.764727431766</v>
+        <v>1791.965621359944</v>
       </c>
       <c r="T6" t="n">
-        <v>1647.079623597751</v>
+        <v>1603.280517525929</v>
       </c>
       <c r="U6" t="n">
-        <v>1428.584831196061</v>
+        <v>1384.785725124239</v>
       </c>
       <c r="V6" t="n">
-        <v>1200.189208644395</v>
+        <v>1156.390102572573</v>
       </c>
       <c r="W6" t="n">
-        <v>958.8733398777049</v>
+        <v>915.074233805883</v>
       </c>
       <c r="X6" t="n">
-        <v>760.9563517554994</v>
+        <v>717.1572456836775</v>
       </c>
       <c r="Y6" t="n">
-        <v>568.4350254050782</v>
+        <v>524.6359193332563</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>388.5948641065978</v>
+        <v>246.4226519337665</v>
       </c>
       <c r="C7" t="n">
-        <v>218.9788945682781</v>
+        <v>246.4226519337665</v>
       </c>
       <c r="D7" t="n">
-        <v>65.90700139604081</v>
+        <v>246.4226519337665</v>
       </c>
       <c r="E7" t="n">
-        <v>65.90700139604081</v>
+        <v>246.4226519337665</v>
       </c>
       <c r="F7" t="n">
-        <v>65.90700139604081</v>
+        <v>246.4226519337665</v>
       </c>
       <c r="G7" t="n">
-        <v>65.90700139604081</v>
+        <v>246.4226519337665</v>
       </c>
       <c r="H7" t="n">
-        <v>65.90700139604081</v>
+        <v>100.1482261308724</v>
       </c>
       <c r="I7" t="n">
-        <v>40.09098754504515</v>
+        <v>100.1482261308724</v>
       </c>
       <c r="J7" t="n">
         <v>40.09098754504515</v>
@@ -4744,31 +4744,31 @@
         <v>572.1502327909776</v>
       </c>
       <c r="Q7" t="n">
-        <v>572.1502327909776</v>
+        <v>533.6128914446666</v>
       </c>
       <c r="R7" t="n">
-        <v>572.1502327909776</v>
+        <v>533.6128914446666</v>
       </c>
       <c r="S7" t="n">
-        <v>572.1502327909776</v>
+        <v>533.6128914446666</v>
       </c>
       <c r="T7" t="n">
-        <v>572.1502327909776</v>
+        <v>533.6128914446666</v>
       </c>
       <c r="U7" t="n">
-        <v>572.1502327909776</v>
+        <v>246.4226519337665</v>
       </c>
       <c r="V7" t="n">
-        <v>572.1502327909776</v>
+        <v>246.4226519337665</v>
       </c>
       <c r="W7" t="n">
-        <v>572.1502327909776</v>
+        <v>246.4226519337665</v>
       </c>
       <c r="X7" t="n">
-        <v>572.1502327909776</v>
+        <v>246.4226519337665</v>
       </c>
       <c r="Y7" t="n">
-        <v>572.1502327909776</v>
+        <v>246.4226519337665</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.563342992586</v>
+        <v>801.0603036991275</v>
       </c>
       <c r="C8" t="n">
-        <v>1164.629584325393</v>
+        <v>801.0603036991275</v>
       </c>
       <c r="D8" t="n">
-        <v>791.8056195526167</v>
+        <v>801.0603036991275</v>
       </c>
       <c r="E8" t="n">
-        <v>397.0198996587235</v>
+        <v>801.0603036991275</v>
       </c>
       <c r="F8" t="n">
-        <v>386.9091130092979</v>
+        <v>790.949517049702</v>
       </c>
       <c r="G8" t="n">
         <v>374.84553050389</v>
@@ -4826,28 +4826,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S8" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T8" t="n">
-        <v>1940.606882510605</v>
+        <v>1786.215572286826</v>
       </c>
       <c r="U8" t="n">
-        <v>1940.606882510605</v>
+        <v>1531.33023600082</v>
       </c>
       <c r="V8" t="n">
-        <v>1940.606882510605</v>
+        <v>1194.350961896761</v>
       </c>
       <c r="W8" t="n">
-        <v>1940.606882510605</v>
+        <v>831.8160317543623</v>
       </c>
       <c r="X8" t="n">
-        <v>1940.606882510605</v>
+        <v>831.8160317543623</v>
       </c>
       <c r="Y8" t="n">
-        <v>1940.606882510605</v>
+        <v>831.8160317543623</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>639.6152086099888</v>
+        <v>650.5650081937138</v>
       </c>
       <c r="C9" t="n">
-        <v>477.9115358509436</v>
+        <v>488.8613354346685</v>
       </c>
       <c r="D9" t="n">
-        <v>339.0728988411556</v>
+        <v>350.0226984248806</v>
       </c>
       <c r="E9" t="n">
-        <v>339.0728988411556</v>
+        <v>202.9946884817518</v>
       </c>
       <c r="F9" t="n">
-        <v>339.0728988411556</v>
+        <v>202.9946884817518</v>
       </c>
       <c r="G9" t="n">
-        <v>210.3443988644402</v>
+        <v>202.9946884817518</v>
       </c>
       <c r="H9" t="n">
         <v>110.4065414111382</v>
@@ -4881,25 +4881,25 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>102.2784026343054</v>
+        <v>49.73385863501696</v>
       </c>
       <c r="K9" t="n">
-        <v>331.768955194494</v>
+        <v>279.2244111952056</v>
       </c>
       <c r="L9" t="n">
-        <v>697.5908003646097</v>
+        <v>645.0462563653213</v>
       </c>
       <c r="M9" t="n">
-        <v>895.6512888769911</v>
+        <v>1130.079609875548</v>
       </c>
       <c r="N9" t="n">
-        <v>1406.916935000113</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="O9" t="n">
-        <v>1799.116885784264</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P9" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
@@ -4908,25 +4908,25 @@
         <v>2041.428536154907</v>
       </c>
       <c r="S9" t="n">
-        <v>2041.428536154907</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T9" t="n">
-        <v>1852.743432320892</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="U9" t="n">
-        <v>1634.248639919202</v>
+        <v>1670.134256765957</v>
       </c>
       <c r="V9" t="n">
-        <v>1405.853017367536</v>
+        <v>1441.738634214291</v>
       </c>
       <c r="W9" t="n">
-        <v>1189.472965863876</v>
+        <v>1200.422765447601</v>
       </c>
       <c r="X9" t="n">
-        <v>991.555977741671</v>
+        <v>1002.505777325396</v>
       </c>
       <c r="Y9" t="n">
-        <v>799.0346513912498</v>
+        <v>809.9844509749746</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E10" t="n">
-        <v>522.7973049282982</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F10" t="n">
-        <v>370.3166499540754</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G10" t="n">
-        <v>201.3969013219254</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H10" t="n">
         <v>42.02425610119923</v>
@@ -4984,28 +4984,28 @@
         <v>574.0835013471317</v>
       </c>
       <c r="R10" t="n">
-        <v>574.0835013471317</v>
+        <v>542.9242582084119</v>
       </c>
       <c r="S10" t="n">
-        <v>574.0835013471317</v>
+        <v>329.2144956120994</v>
       </c>
       <c r="T10" t="n">
-        <v>574.0835013471317</v>
+        <v>329.2144956120994</v>
       </c>
       <c r="U10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="V10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1384.430717309255</v>
+        <v>1632.389722695889</v>
       </c>
       <c r="C11" t="n">
-        <v>1206.618060567998</v>
+        <v>1365.031888784462</v>
       </c>
       <c r="D11" t="n">
         <v>1206.618060567998</v>
@@ -5036,31 +5036,31 @@
         <v>107.0595880588376</v>
       </c>
       <c r="I11" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="J11" t="n">
-        <v>233.1127221493322</v>
+        <v>120.8168582962056</v>
       </c>
       <c r="K11" t="n">
-        <v>585.5489580472416</v>
+        <v>360.9572303409884</v>
       </c>
       <c r="L11" t="n">
-        <v>933.4343311321879</v>
+        <v>708.8426034259346</v>
       </c>
       <c r="M11" t="n">
-        <v>1434.990607866859</v>
+        <v>1214.377633532149</v>
       </c>
       <c r="N11" t="n">
-        <v>1813.321966554574</v>
+        <v>1592.708992219865</v>
       </c>
       <c r="O11" t="n">
-        <v>2118.326551027408</v>
+        <v>1897.713576692699</v>
       </c>
       <c r="P11" t="n">
-        <v>2346.483447483462</v>
+        <v>2210.726304379923</v>
       </c>
       <c r="Q11" t="n">
-        <v>2440.915701169999</v>
+        <v>2417.454421919586</v>
       </c>
       <c r="R11" t="n">
         <v>2440.915701169999</v>
@@ -5069,7 +5069,7 @@
         <v>2440.915701169999</v>
       </c>
       <c r="T11" t="n">
-        <v>2331.132679656776</v>
+        <v>2331.132679656777</v>
       </c>
       <c r="U11" t="n">
         <v>2190.823268126537</v>
@@ -5078,13 +5078,13 @@
         <v>2190.823268126537</v>
       </c>
       <c r="W11" t="n">
-        <v>1942.864262739904</v>
+        <v>2190.823268126537</v>
       </c>
       <c r="X11" t="n">
-        <v>1942.864262739904</v>
+        <v>2190.823268126537</v>
       </c>
       <c r="Y11" t="n">
-        <v>1663.898332071508</v>
+        <v>1911.857337458142</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>801.5828004697364</v>
+        <v>916.1587252255033</v>
       </c>
       <c r="C12" t="n">
-        <v>666.4895443130968</v>
+        <v>754.455052466458</v>
       </c>
       <c r="D12" t="n">
-        <v>527.6509073033088</v>
+        <v>615.6164154566701</v>
       </c>
       <c r="E12" t="n">
-        <v>380.62289736018</v>
+        <v>468.5884055135413</v>
       </c>
       <c r="F12" t="n">
-        <v>245.9290993100544</v>
+        <v>333.8946074634157</v>
       </c>
       <c r="G12" t="n">
-        <v>117.200599333339</v>
+        <v>217.1384567866409</v>
       </c>
       <c r="H12" t="n">
         <v>117.200599333339</v>
       </c>
       <c r="I12" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="J12" t="n">
-        <v>109.0724605565061</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="K12" t="n">
-        <v>338.5630131166948</v>
+        <v>278.3088665835886</v>
       </c>
       <c r="L12" t="n">
-        <v>704.3848582868104</v>
+        <v>644.1307117537042</v>
       </c>
       <c r="M12" t="n">
-        <v>1189.418211797037</v>
+        <v>1129.164065263931</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.683857920159</v>
+        <v>1640.429711387053</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.88380870431</v>
+        <v>1981.048152108708</v>
       </c>
       <c r="P12" t="n">
-        <v>2394.979727980007</v>
+        <v>2283.144071384405</v>
       </c>
       <c r="Q12" t="n">
         <v>2440.915701169999</v>
       </c>
       <c r="R12" t="n">
-        <v>2381.131432264944</v>
+        <v>2381.131432264945</v>
       </c>
       <c r="S12" t="n">
         <v>2228.331945277685</v>
       </c>
       <c r="T12" t="n">
-        <v>2039.64684144367</v>
+        <v>2154.222766199437</v>
       </c>
       <c r="U12" t="n">
-        <v>1821.15204904198</v>
+        <v>1935.727973797747</v>
       </c>
       <c r="V12" t="n">
-        <v>1592.756426490314</v>
+        <v>1707.332351246081</v>
       </c>
       <c r="W12" t="n">
-        <v>1351.440557723624</v>
+        <v>1466.016482479391</v>
       </c>
       <c r="X12" t="n">
-        <v>1153.523569601419</v>
+        <v>1268.099494357185</v>
       </c>
       <c r="Y12" t="n">
-        <v>961.0022432509974</v>
+        <v>1075.578168006764</v>
       </c>
     </row>
     <row r="13">
@@ -5173,7 +5173,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>346.4598109066941</v>
+        <v>346.459810906694</v>
       </c>
       <c r="C13" t="n">
         <v>291.4197661241407</v>
@@ -5185,16 +5185,16 @@
         <v>215.490708224755</v>
       </c>
       <c r="F13" t="n">
-        <v>177.5859780062985</v>
+        <v>177.5859780062984</v>
       </c>
       <c r="G13" t="n">
         <v>123.2421541299149</v>
       </c>
       <c r="H13" t="n">
-        <v>78.44543366495509</v>
+        <v>78.44543366495508</v>
       </c>
       <c r="I13" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="J13" t="n">
         <v>102.2520783385573</v>
@@ -5203,7 +5203,7 @@
         <v>248.1521299363274</v>
       </c>
       <c r="L13" t="n">
-        <v>461.0550731897135</v>
+        <v>461.0550731897134</v>
       </c>
       <c r="M13" t="n">
         <v>691.3444431704418</v>
@@ -5221,28 +5221,28 @@
         <v>1382.611922302857</v>
       </c>
       <c r="R13" t="n">
-        <v>1347.666065673001</v>
+        <v>1347.666065673002</v>
       </c>
       <c r="S13" t="n">
-        <v>1248.532227832455</v>
+        <v>1248.532227832456</v>
       </c>
       <c r="T13" t="n">
         <v>1129.929199403901</v>
       </c>
       <c r="U13" t="n">
-        <v>957.3148846487668</v>
+        <v>957.3148846487674</v>
       </c>
       <c r="V13" t="n">
-        <v>811.1555049629558</v>
+        <v>811.1555049629563</v>
       </c>
       <c r="W13" t="n">
-        <v>639.5750282361211</v>
+        <v>639.5750282361219</v>
       </c>
       <c r="X13" t="n">
-        <v>522.8984888872641</v>
+        <v>522.8984888872639</v>
       </c>
       <c r="Y13" t="n">
-        <v>415.4392548353076</v>
+        <v>415.4392548353075</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1513.97858484951</v>
+        <v>1421.560688208599</v>
       </c>
       <c r="C14" t="n">
-        <v>1246.620750938083</v>
+        <v>1154.202854297173</v>
       </c>
       <c r="D14" t="n">
-        <v>988.3727109210733</v>
+        <v>895.9548142801635</v>
       </c>
       <c r="E14" t="n">
-        <v>708.1629157829466</v>
+        <v>895.9548142801635</v>
       </c>
       <c r="F14" t="n">
-        <v>408.5876498488833</v>
+        <v>596.3795483461003</v>
       </c>
       <c r="G14" t="n">
-        <v>107.0595880588376</v>
+        <v>294.8514865560546</v>
       </c>
       <c r="H14" t="n">
-        <v>107.0595880588376</v>
+        <v>76.60613690913031</v>
       </c>
       <c r="I14" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="J14" t="n">
-        <v>229.1339687777884</v>
+        <v>233.1127221493323</v>
       </c>
       <c r="K14" t="n">
-        <v>581.5702046756978</v>
+        <v>473.2530941941151</v>
       </c>
       <c r="L14" t="n">
-        <v>929.455577760644</v>
+        <v>821.1384672790614</v>
       </c>
       <c r="M14" t="n">
-        <v>1322.694744013732</v>
+        <v>1214.377633532149</v>
       </c>
       <c r="N14" t="n">
-        <v>1813.321966554574</v>
+        <v>1677.564823451035</v>
       </c>
       <c r="O14" t="n">
-        <v>2118.326551027408</v>
+        <v>1982.569407923869</v>
       </c>
       <c r="P14" t="n">
-        <v>2346.483447483462</v>
+        <v>2323.022168233049</v>
       </c>
       <c r="Q14" t="n">
-        <v>2440.915701169999</v>
+        <v>2417.454421919586</v>
       </c>
       <c r="R14" t="n">
         <v>2440.915701169999</v>
@@ -5306,22 +5306,22 @@
         <v>2368.262650556119</v>
       </c>
       <c r="T14" t="n">
-        <v>2258.479629042896</v>
+        <v>2368.262650556119</v>
       </c>
       <c r="U14" t="n">
-        <v>2118.170217512657</v>
+        <v>2227.95323902588</v>
       </c>
       <c r="V14" t="n">
-        <v>2060.900415334503</v>
+        <v>2227.95323902588</v>
       </c>
       <c r="W14" t="n">
-        <v>2060.900415334503</v>
+        <v>1979.994233639247</v>
       </c>
       <c r="X14" t="n">
-        <v>1793.446199611762</v>
+        <v>1979.994233639247</v>
       </c>
       <c r="Y14" t="n">
-        <v>1793.446199611762</v>
+        <v>1701.028302970851</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>928.131074525444</v>
+        <v>813.5551497696775</v>
       </c>
       <c r="C15" t="n">
-        <v>766.4274017663987</v>
+        <v>651.8514770106323</v>
       </c>
       <c r="D15" t="n">
-        <v>627.5887647566108</v>
+        <v>513.0128400008443</v>
       </c>
       <c r="E15" t="n">
-        <v>480.560754813482</v>
+        <v>365.9848300577156</v>
       </c>
       <c r="F15" t="n">
-        <v>345.8669567633564</v>
+        <v>231.2910320075899</v>
       </c>
       <c r="G15" t="n">
         <v>217.1384567866409</v>
@@ -5352,7 +5352,7 @@
         <v>117.200599333339</v>
       </c>
       <c r="I15" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="J15" t="n">
         <v>109.0724605565061</v>
@@ -5373,34 +5373,34 @@
         <v>2092.88380870431</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.144071384404</v>
+        <v>2283.144071384405</v>
       </c>
       <c r="Q15" t="n">
         <v>2440.915701169999</v>
       </c>
       <c r="R15" t="n">
-        <v>2381.131432264944</v>
+        <v>2393.103781564885</v>
       </c>
       <c r="S15" t="n">
-        <v>2342.907870033451</v>
+        <v>2240.304294577626</v>
       </c>
       <c r="T15" t="n">
-        <v>2154.222766199436</v>
+        <v>2051.619190743611</v>
       </c>
       <c r="U15" t="n">
-        <v>1935.727973797746</v>
+        <v>1833.124398341921</v>
       </c>
       <c r="V15" t="n">
-        <v>1707.33235124608</v>
+        <v>1604.728775790255</v>
       </c>
       <c r="W15" t="n">
-        <v>1466.01648247939</v>
+        <v>1363.412907023565</v>
       </c>
       <c r="X15" t="n">
-        <v>1268.099494357185</v>
+        <v>1165.49591890136</v>
       </c>
       <c r="Y15" t="n">
-        <v>1087.550517306705</v>
+        <v>972.9745925509385</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1404.763589773836</v>
+        <v>346.459810906694</v>
       </c>
       <c r="C16" t="n">
-        <v>1349.723544991283</v>
+        <v>291.4197661241407</v>
       </c>
       <c r="D16" t="n">
-        <v>1311.227576574812</v>
+        <v>252.9237977076699</v>
       </c>
       <c r="E16" t="n">
-        <v>1273.794487091897</v>
+        <v>215.4907082247549</v>
       </c>
       <c r="F16" t="n">
-        <v>1235.889756873441</v>
+        <v>177.5859780062984</v>
       </c>
       <c r="G16" t="n">
-        <v>1181.545932997057</v>
+        <v>123.2421541299148</v>
       </c>
       <c r="H16" t="n">
-        <v>1136.749212532097</v>
+        <v>78.44543366495509</v>
       </c>
       <c r="I16" t="n">
-        <v>1107.122092890542</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="J16" t="n">
-        <v>1160.555857205699</v>
+        <v>102.2520783385575</v>
       </c>
       <c r="K16" t="n">
-        <v>1306.45590880347</v>
+        <v>248.1521299363271</v>
       </c>
       <c r="L16" t="n">
-        <v>1519.358852056856</v>
+        <v>461.055073189713</v>
       </c>
       <c r="M16" t="n">
-        <v>1749.648222037584</v>
+        <v>691.3444431704414</v>
       </c>
       <c r="N16" t="n">
-        <v>1980.366427640311</v>
+        <v>922.0626487731687</v>
       </c>
       <c r="O16" t="n">
-        <v>2191.125937989127</v>
+        <v>1132.822159121985</v>
       </c>
       <c r="P16" t="n">
-        <v>2366.390285570391</v>
+        <v>1308.08650670325</v>
       </c>
       <c r="Q16" t="n">
-        <v>2440.915701169999</v>
+        <v>1382.611922302857</v>
       </c>
       <c r="R16" t="n">
-        <v>2405.969844540143</v>
+        <v>1347.666065673002</v>
       </c>
       <c r="S16" t="n">
-        <v>2306.836006699597</v>
+        <v>1248.532227832456</v>
       </c>
       <c r="T16" t="n">
-        <v>2188.232978271043</v>
+        <v>1129.929199403901</v>
       </c>
       <c r="U16" t="n">
-        <v>2015.618663515909</v>
+        <v>957.3148846487672</v>
       </c>
       <c r="V16" t="n">
-        <v>1869.459283830098</v>
+        <v>811.1555049629562</v>
       </c>
       <c r="W16" t="n">
-        <v>1697.878807103264</v>
+        <v>639.5750282361217</v>
       </c>
       <c r="X16" t="n">
-        <v>1581.202267754406</v>
+        <v>522.898488887264</v>
       </c>
       <c r="Y16" t="n">
-        <v>1473.743033702449</v>
+        <v>415.4392548353073</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1308.812992388145</v>
+        <v>1308.812992388146</v>
       </c>
       <c r="C17" t="n">
         <v>1102.316769822194</v>
@@ -5501,37 +5501,37 @@
         <v>685.5821573580076</v>
       </c>
       <c r="F17" t="n">
-        <v>446.8685027694196</v>
+        <v>446.8685027694195</v>
       </c>
       <c r="G17" t="n">
         <v>206.2020523248491</v>
       </c>
       <c r="H17" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="I17" t="n">
-        <v>48.81831402339997</v>
+        <v>51.3865066209678</v>
       </c>
       <c r="J17" t="n">
-        <v>120.8168582962056</v>
+        <v>123.3850508937735</v>
       </c>
       <c r="K17" t="n">
-        <v>360.9572303409884</v>
+        <v>363.5254229385562</v>
       </c>
       <c r="L17" t="n">
-        <v>708.8426034259346</v>
+        <v>711.4107960235025</v>
       </c>
       <c r="M17" t="n">
-        <v>1102.081769679022</v>
+        <v>1104.64996227659</v>
       </c>
       <c r="N17" t="n">
-        <v>1558.263892891635</v>
+        <v>1482.981320964306</v>
       </c>
       <c r="O17" t="n">
-        <v>2035.214806497296</v>
+        <v>1787.98590543714</v>
       </c>
       <c r="P17" t="n">
-        <v>2263.371702953349</v>
+        <v>2091.425373820523</v>
       </c>
       <c r="Q17" t="n">
         <v>2357.803956639886</v>
@@ -5540,10 +5540,10 @@
         <v>2440.915701169999</v>
       </c>
       <c r="S17" t="n">
-        <v>2429.124261901594</v>
+        <v>2429.124261901595</v>
       </c>
       <c r="T17" t="n">
-        <v>2380.202851733847</v>
+        <v>2380.202851733848</v>
       </c>
       <c r="U17" t="n">
         <v>2300.755051549083</v>
@@ -5555,7 +5555,7 @@
         <v>1952.115919505109</v>
       </c>
       <c r="X17" t="n">
-        <v>1745.523315127843</v>
+        <v>1745.523315127844</v>
       </c>
       <c r="Y17" t="n">
         <v>1527.418995804923</v>
@@ -5568,7 +5568,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>801.5828004697364</v>
+        <v>928.131074525444</v>
       </c>
       <c r="C18" t="n">
         <v>766.4274017663987</v>
@@ -5589,7 +5589,7 @@
         <v>117.200599333339</v>
       </c>
       <c r="I18" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="J18" t="n">
         <v>109.0724605565061</v>
@@ -5604,40 +5604,40 @@
         <v>1189.418211797037</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.683857920159</v>
+        <v>1588.848201324557</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.88380870431</v>
+        <v>1981.048152108708</v>
       </c>
       <c r="P18" t="n">
-        <v>2394.979727980007</v>
+        <v>2283.144071384405</v>
       </c>
       <c r="Q18" t="n">
         <v>2440.915701169999</v>
       </c>
       <c r="R18" t="n">
-        <v>2381.131432264944</v>
+        <v>2381.131432264945</v>
       </c>
       <c r="S18" t="n">
         <v>2228.331945277685</v>
       </c>
       <c r="T18" t="n">
-        <v>2039.64684144367</v>
+        <v>2166.195115499377</v>
       </c>
       <c r="U18" t="n">
-        <v>1821.15204904198</v>
+        <v>1947.700323097687</v>
       </c>
       <c r="V18" t="n">
-        <v>1592.756426490314</v>
+        <v>1719.304700546021</v>
       </c>
       <c r="W18" t="n">
-        <v>1351.440557723624</v>
+        <v>1477.988831779331</v>
       </c>
       <c r="X18" t="n">
-        <v>1153.523569601419</v>
+        <v>1280.071843657126</v>
       </c>
       <c r="Y18" t="n">
-        <v>961.0022432509974</v>
+        <v>1087.550517306705</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.56419526682645</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="C19" t="n">
-        <v>66.56419526682645</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="D19" t="n">
-        <v>66.56419526682645</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="E19" t="n">
-        <v>66.56419526682645</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="F19" t="n">
-        <v>66.56419526682645</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="G19" t="n">
-        <v>66.56419526682645</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="H19" t="n">
-        <v>66.56419526682645</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="I19" t="n">
-        <v>66.56419526682645</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="J19" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="K19" t="n">
         <v>82.42250176804339</v>
@@ -5698,25 +5698,25 @@
         <v>580.8775592693326</v>
       </c>
       <c r="S19" t="n">
-        <v>542.6053327742617</v>
+        <v>524.8594515308356</v>
       </c>
       <c r="T19" t="n">
-        <v>484.8639156911821</v>
+        <v>467.118034447756</v>
       </c>
       <c r="U19" t="n">
-        <v>373.1112122815236</v>
+        <v>355.3653310380974</v>
       </c>
       <c r="V19" t="n">
-        <v>287.8134439411878</v>
+        <v>270.0675626977616</v>
       </c>
       <c r="W19" t="n">
-        <v>177.0945785598286</v>
+        <v>159.3486973164023</v>
       </c>
       <c r="X19" t="n">
-        <v>121.2796505564459</v>
+        <v>103.5337693130196</v>
       </c>
       <c r="Y19" t="n">
-        <v>74.68202784996465</v>
+        <v>56.93614660653824</v>
       </c>
     </row>
     <row r="20">
@@ -5732,40 +5732,40 @@
         <v>1102.316769822194</v>
       </c>
       <c r="D20" t="n">
-        <v>904.9303411506592</v>
+        <v>904.9303411506594</v>
       </c>
       <c r="E20" t="n">
-        <v>685.5821573580076</v>
+        <v>685.5821573580079</v>
       </c>
       <c r="F20" t="n">
-        <v>446.8685027694194</v>
+        <v>446.8685027694196</v>
       </c>
       <c r="G20" t="n">
         <v>206.2020523248491</v>
       </c>
       <c r="H20" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="I20" t="n">
-        <v>51.38650662096785</v>
+        <v>51.3865066209678</v>
       </c>
       <c r="J20" t="n">
         <v>123.3850508937735</v>
       </c>
       <c r="K20" t="n">
-        <v>363.5254229385563</v>
+        <v>363.5254229385562</v>
       </c>
       <c r="L20" t="n">
-        <v>883.3571251563294</v>
+        <v>869.8051124809443</v>
       </c>
       <c r="M20" t="n">
-        <v>1276.596291409417</v>
+        <v>1434.990607866859</v>
       </c>
       <c r="N20" t="n">
-        <v>1654.927650097133</v>
+        <v>1813.321966554575</v>
       </c>
       <c r="O20" t="n">
-        <v>1959.932234569967</v>
+        <v>2118.326551027409</v>
       </c>
       <c r="P20" t="n">
         <v>2346.483447483462</v>
@@ -5777,19 +5777,19 @@
         <v>2440.915701169999</v>
       </c>
       <c r="S20" t="n">
-        <v>2429.124261901594</v>
+        <v>2429.124261901595</v>
       </c>
       <c r="T20" t="n">
-        <v>2380.202851733847</v>
+        <v>2380.202851733848</v>
       </c>
       <c r="U20" t="n">
         <v>2300.755051549083</v>
       </c>
       <c r="V20" t="n">
-        <v>2139.213313546265</v>
+        <v>2139.213313546266</v>
       </c>
       <c r="W20" t="n">
-        <v>1952.115919505108</v>
+        <v>1952.115919505109</v>
       </c>
       <c r="X20" t="n">
         <v>1745.523315127843</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>928.131074525444</v>
+        <v>861.3670693747913</v>
       </c>
       <c r="C21" t="n">
-        <v>766.4274017663987</v>
+        <v>699.663396615746</v>
       </c>
       <c r="D21" t="n">
-        <v>627.5887647566108</v>
+        <v>560.8247596059581</v>
       </c>
       <c r="E21" t="n">
-        <v>480.560754813482</v>
+        <v>413.7967496628293</v>
       </c>
       <c r="F21" t="n">
-        <v>345.8669567633564</v>
+        <v>279.1029516127037</v>
       </c>
       <c r="G21" t="n">
-        <v>217.1384567866409</v>
+        <v>150.3744516359883</v>
       </c>
       <c r="H21" t="n">
-        <v>117.200599333339</v>
+        <v>50.43659418268631</v>
       </c>
       <c r="I21" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="J21" t="n">
-        <v>109.0724605565061</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="K21" t="n">
-        <v>338.5630131166948</v>
+        <v>278.3088665835886</v>
       </c>
       <c r="L21" t="n">
-        <v>704.3848582868104</v>
+        <v>644.1307117537042</v>
       </c>
       <c r="M21" t="n">
-        <v>1189.418211797037</v>
+        <v>1129.164065263931</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.683857920159</v>
+        <v>1640.429711387053</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.88380870431</v>
+        <v>2032.629662171204</v>
       </c>
       <c r="P21" t="n">
-        <v>2394.979727980007</v>
+        <v>2334.725581446901</v>
       </c>
       <c r="Q21" t="n">
         <v>2440.915701169999</v>
       </c>
       <c r="R21" t="n">
-        <v>2381.131432264944</v>
+        <v>2440.915701169999</v>
       </c>
       <c r="S21" t="n">
-        <v>2228.331945277685</v>
+        <v>2288.116214182739</v>
       </c>
       <c r="T21" t="n">
-        <v>2039.64684144367</v>
+        <v>2099.431110348725</v>
       </c>
       <c r="U21" t="n">
-        <v>1821.15204904198</v>
+        <v>1880.936317947035</v>
       </c>
       <c r="V21" t="n">
-        <v>1719.304700546021</v>
+        <v>1652.540695395369</v>
       </c>
       <c r="W21" t="n">
-        <v>1477.988831779331</v>
+        <v>1411.224826628679</v>
       </c>
       <c r="X21" t="n">
-        <v>1280.071843657126</v>
+        <v>1213.307838506473</v>
       </c>
       <c r="Y21" t="n">
-        <v>1087.550517306705</v>
+        <v>1020.786512156052</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.56419526682645</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="C22" t="n">
-        <v>66.56419526682645</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="D22" t="n">
-        <v>66.56419526682645</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="E22" t="n">
-        <v>66.56419526682645</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="F22" t="n">
-        <v>66.56419526682645</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="G22" t="n">
-        <v>66.56419526682645</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="H22" t="n">
-        <v>66.56419526682645</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="I22" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="J22" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="K22" t="n">
         <v>82.42250176804339</v>
@@ -5935,25 +5935,25 @@
         <v>580.8775592693326</v>
       </c>
       <c r="S22" t="n">
-        <v>542.6053327742617</v>
+        <v>524.8594515308356</v>
       </c>
       <c r="T22" t="n">
-        <v>484.8639156911821</v>
+        <v>467.118034447756</v>
       </c>
       <c r="U22" t="n">
-        <v>373.1112122815236</v>
+        <v>355.3653310380974</v>
       </c>
       <c r="V22" t="n">
-        <v>287.8134439411878</v>
+        <v>270.0675626977616</v>
       </c>
       <c r="W22" t="n">
-        <v>177.0945785598286</v>
+        <v>159.3486973164023</v>
       </c>
       <c r="X22" t="n">
-        <v>121.2796505564459</v>
+        <v>103.5337693130196</v>
       </c>
       <c r="Y22" t="n">
-        <v>74.68202784996465</v>
+        <v>56.93614660653824</v>
       </c>
     </row>
     <row r="23">
@@ -5975,37 +5975,37 @@
         <v>685.5821573580074</v>
       </c>
       <c r="F23" t="n">
-        <v>446.8685027694196</v>
+        <v>446.8685027694195</v>
       </c>
       <c r="G23" t="n">
         <v>206.2020523248491</v>
       </c>
       <c r="H23" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="I23" t="n">
-        <v>48.81831402339997</v>
+        <v>51.3865066209678</v>
       </c>
       <c r="J23" t="n">
-        <v>120.8168582962056</v>
+        <v>123.3850508937735</v>
       </c>
       <c r="K23" t="n">
-        <v>360.9572303409884</v>
+        <v>363.5254229385562</v>
       </c>
       <c r="L23" t="n">
-        <v>786.6933679508309</v>
+        <v>711.4107960235025</v>
       </c>
       <c r="M23" t="n">
-        <v>1179.932534203919</v>
+        <v>1104.64996227659</v>
       </c>
       <c r="N23" t="n">
-        <v>1730.210222024461</v>
+        <v>1482.981320964306</v>
       </c>
       <c r="O23" t="n">
-        <v>2035.214806497296</v>
+        <v>1863.268477364469</v>
       </c>
       <c r="P23" t="n">
-        <v>2263.371702953349</v>
+        <v>2091.425373820523</v>
       </c>
       <c r="Q23" t="n">
         <v>2357.803956639886</v>
@@ -6014,22 +6014,22 @@
         <v>2440.915701169999</v>
       </c>
       <c r="S23" t="n">
-        <v>2429.124261901594</v>
+        <v>2429.124261901595</v>
       </c>
       <c r="T23" t="n">
-        <v>2380.202851733846</v>
+        <v>2380.202851733848</v>
       </c>
       <c r="U23" t="n">
-        <v>2300.755051549082</v>
+        <v>2300.755051549083</v>
       </c>
       <c r="V23" t="n">
-        <v>2139.213313546265</v>
+        <v>2139.213313546266</v>
       </c>
       <c r="W23" t="n">
-        <v>1952.115919505108</v>
+        <v>1952.115919505109</v>
       </c>
       <c r="X23" t="n">
-        <v>1745.523315127843</v>
+        <v>1745.523315127844</v>
       </c>
       <c r="Y23" t="n">
         <v>1527.418995804923</v>
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>801.5828004697364</v>
+        <v>928.131074525444</v>
       </c>
       <c r="C24" t="n">
-        <v>639.8791277106911</v>
+        <v>766.4274017663987</v>
       </c>
       <c r="D24" t="n">
-        <v>501.0404907009032</v>
+        <v>627.5887647566108</v>
       </c>
       <c r="E24" t="n">
-        <v>354.0124807577744</v>
+        <v>480.560754813482</v>
       </c>
       <c r="F24" t="n">
-        <v>219.3186827076488</v>
+        <v>345.8669567633564</v>
       </c>
       <c r="G24" t="n">
         <v>217.1384567866409</v>
@@ -6063,55 +6063,55 @@
         <v>117.200599333339</v>
       </c>
       <c r="I24" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="J24" t="n">
-        <v>48.81831402339997</v>
+        <v>109.0724605565061</v>
       </c>
       <c r="K24" t="n">
-        <v>278.3088665835886</v>
+        <v>338.5630131166948</v>
       </c>
       <c r="L24" t="n">
-        <v>644.1307117537042</v>
+        <v>704.3848582868104</v>
       </c>
       <c r="M24" t="n">
-        <v>1077.582555201434</v>
+        <v>1189.418211797037</v>
       </c>
       <c r="N24" t="n">
-        <v>1588.848201324556</v>
+        <v>1700.683857920159</v>
       </c>
       <c r="O24" t="n">
-        <v>1981.048152108707</v>
+        <v>2092.88380870431</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.144071384404</v>
+        <v>2394.979727980007</v>
       </c>
       <c r="Q24" t="n">
         <v>2440.915701169999</v>
       </c>
       <c r="R24" t="n">
-        <v>2381.131432264944</v>
+        <v>2440.915701169999</v>
       </c>
       <c r="S24" t="n">
-        <v>2228.331945277685</v>
+        <v>2354.880219333392</v>
       </c>
       <c r="T24" t="n">
-        <v>2039.64684144367</v>
+        <v>2166.195115499377</v>
       </c>
       <c r="U24" t="n">
-        <v>1821.15204904198</v>
+        <v>1947.700323097687</v>
       </c>
       <c r="V24" t="n">
-        <v>1592.756426490314</v>
+        <v>1719.304700546021</v>
       </c>
       <c r="W24" t="n">
-        <v>1351.440557723624</v>
+        <v>1477.988831779331</v>
       </c>
       <c r="X24" t="n">
-        <v>1153.523569601419</v>
+        <v>1280.071843657126</v>
       </c>
       <c r="Y24" t="n">
-        <v>961.0022432509974</v>
+        <v>1087.550517306705</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="C25" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="D25" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="E25" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="F25" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="G25" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="H25" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="I25" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="J25" t="n">
-        <v>48.81831402339997</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="K25" t="n">
         <v>82.42250176804339</v>
@@ -6175,22 +6175,22 @@
         <v>542.6053327742617</v>
       </c>
       <c r="T25" t="n">
-        <v>467.1180344477556</v>
+        <v>484.8639156911821</v>
       </c>
       <c r="U25" t="n">
-        <v>355.3653310380971</v>
+        <v>373.1112122815235</v>
       </c>
       <c r="V25" t="n">
-        <v>270.0675626977613</v>
+        <v>287.8134439411876</v>
       </c>
       <c r="W25" t="n">
-        <v>159.3486973164021</v>
+        <v>177.0945785598283</v>
       </c>
       <c r="X25" t="n">
-        <v>103.5337693130195</v>
+        <v>121.2796505564457</v>
       </c>
       <c r="Y25" t="n">
-        <v>56.93614660653817</v>
+        <v>74.68202784996431</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1512.713854006613</v>
+        <v>1743.233621313474</v>
       </c>
       <c r="C26" t="n">
         <v>1475.875787402048</v>
@@ -6209,67 +6209,67 @@
         <v>1217.627747385038</v>
       </c>
       <c r="E26" t="n">
-        <v>937.4179522469113</v>
+        <v>937.4179522469115</v>
       </c>
       <c r="F26" t="n">
-        <v>637.8426863128481</v>
+        <v>637.8426863128482</v>
       </c>
       <c r="G26" t="n">
         <v>336.3146245228024</v>
       </c>
       <c r="H26" t="n">
-        <v>118.0692748758781</v>
+        <v>118.0692748758782</v>
       </c>
       <c r="I26" t="n">
-        <v>59.82800084044057</v>
+        <v>59.82800084044058</v>
       </c>
       <c r="J26" t="n">
-        <v>244.1224089663729</v>
+        <v>194.6777111137729</v>
       </c>
       <c r="K26" t="n">
-        <v>596.5586448642823</v>
+        <v>547.1139470116824</v>
       </c>
       <c r="L26" t="n">
-        <v>1056.739881802355</v>
+        <v>1007.295183949755</v>
       </c>
       <c r="M26" t="n">
-        <v>1512.830214055969</v>
+        <v>1512.83021405597</v>
       </c>
       <c r="N26" t="n">
-        <v>2003.457436596811</v>
+        <v>2003.457436596812</v>
       </c>
       <c r="O26" t="n">
-        <v>2420.757884922772</v>
+        <v>2420.757884922773</v>
       </c>
       <c r="P26" t="n">
-        <v>2761.210645231952</v>
+        <v>2761.210645231953</v>
       </c>
       <c r="Q26" t="n">
         <v>2967.938762771616</v>
       </c>
       <c r="R26" t="n">
-        <v>2991.400042022028</v>
+        <v>2991.400042022029</v>
       </c>
       <c r="S26" t="n">
-        <v>2918.746991408148</v>
+        <v>2918.746991408149</v>
       </c>
       <c r="T26" t="n">
         <v>2808.963969894926</v>
       </c>
       <c r="U26" t="n">
-        <v>2808.963969894926</v>
+        <v>2760.016122439535</v>
       </c>
       <c r="V26" t="n">
-        <v>2586.560620546634</v>
+        <v>2537.612773091243</v>
       </c>
       <c r="W26" t="n">
-        <v>2338.601615160001</v>
+        <v>2289.65376770461</v>
       </c>
       <c r="X26" t="n">
-        <v>2071.147399437261</v>
+        <v>2022.19955198187</v>
       </c>
       <c r="Y26" t="n">
-        <v>1792.181468768865</v>
+        <v>1743.233621313474</v>
       </c>
     </row>
     <row r="27">
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>924.4281438823803</v>
+        <v>939.1407613424846</v>
       </c>
       <c r="C27" t="n">
-        <v>762.724471123335</v>
+        <v>777.4370885834393</v>
       </c>
       <c r="D27" t="n">
-        <v>623.885834113547</v>
+        <v>638.5984515736513</v>
       </c>
       <c r="E27" t="n">
         <v>491.5704416305226</v>
@@ -6300,7 +6300,7 @@
         <v>128.2102861503796</v>
       </c>
       <c r="I27" t="n">
-        <v>59.82800084044057</v>
+        <v>59.82800084044058</v>
       </c>
       <c r="J27" t="n">
         <v>120.0821473735467</v>
@@ -6327,28 +6327,28 @@
         <v>2563.761044582642</v>
       </c>
       <c r="R27" t="n">
-        <v>2503.976775677588</v>
+        <v>2518.689393137692</v>
       </c>
       <c r="S27" t="n">
-        <v>2351.177288690328</v>
+        <v>2365.889906150433</v>
       </c>
       <c r="T27" t="n">
-        <v>2162.492184856314</v>
+        <v>2177.204802316418</v>
       </c>
       <c r="U27" t="n">
-        <v>1943.997392454624</v>
+        <v>1958.710009914728</v>
       </c>
       <c r="V27" t="n">
-        <v>1715.601769902958</v>
+        <v>1730.314387363062</v>
       </c>
       <c r="W27" t="n">
-        <v>1474.285901136268</v>
+        <v>1488.998518596372</v>
       </c>
       <c r="X27" t="n">
-        <v>1276.368913014062</v>
+        <v>1291.081530474167</v>
       </c>
       <c r="Y27" t="n">
-        <v>1083.847586663641</v>
+        <v>1098.560204123746</v>
       </c>
     </row>
     <row r="28">
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>357.4694977237342</v>
+        <v>357.4694977237343</v>
       </c>
       <c r="C28" t="n">
-        <v>302.4294529411809</v>
+        <v>302.4294529411811</v>
       </c>
       <c r="D28" t="n">
-        <v>263.9334845247101</v>
+        <v>263.9334845247103</v>
       </c>
       <c r="E28" t="n">
-        <v>226.5003950417954</v>
+        <v>226.5003950417956</v>
       </c>
       <c r="F28" t="n">
-        <v>188.595664823339</v>
+        <v>188.5956648233391</v>
       </c>
       <c r="G28" t="n">
-        <v>134.2518409469554</v>
+        <v>134.2518409469555</v>
       </c>
       <c r="H28" t="n">
-        <v>89.45512048199561</v>
+        <v>89.45512048199572</v>
       </c>
       <c r="I28" t="n">
-        <v>59.82800084044057</v>
+        <v>59.82800084044058</v>
       </c>
       <c r="J28" t="n">
         <v>113.2617651555981</v>
       </c>
       <c r="K28" t="n">
-        <v>259.1618167533676</v>
+        <v>259.1618167533677</v>
       </c>
       <c r="L28" t="n">
-        <v>472.0647600067538</v>
+        <v>472.0647600067539</v>
       </c>
       <c r="M28" t="n">
-        <v>702.3541299874822</v>
+        <v>702.3541299874821</v>
       </c>
       <c r="N28" t="n">
-        <v>933.0723355902093</v>
+        <v>933.0723355902091</v>
       </c>
       <c r="O28" t="n">
         <v>1143.831845939025</v>
@@ -6415,7 +6415,7 @@
         <v>1140.938886220941</v>
       </c>
       <c r="U28" t="n">
-        <v>968.3245714658074</v>
+        <v>968.3245714658076</v>
       </c>
       <c r="V28" t="n">
         <v>822.1651917799963</v>
@@ -6427,7 +6427,7 @@
         <v>533.9081757043041</v>
       </c>
       <c r="Y28" t="n">
-        <v>426.4489416523476</v>
+        <v>426.4489416523477</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1651.872057238626</v>
+        <v>1426.744307261027</v>
       </c>
       <c r="C29" t="n">
-        <v>1384.514223327199</v>
+        <v>1159.386473349601</v>
       </c>
       <c r="D29" t="n">
-        <v>1126.266183310189</v>
+        <v>1159.386473349601</v>
       </c>
       <c r="E29" t="n">
-        <v>937.4179522469115</v>
+        <v>879.1766782114739</v>
       </c>
       <c r="F29" t="n">
-        <v>637.8426863128482</v>
+        <v>579.6014122774106</v>
       </c>
       <c r="G29" t="n">
-        <v>336.3146245228025</v>
+        <v>278.0733504873649</v>
       </c>
       <c r="H29" t="n">
-        <v>118.0692748758782</v>
+        <v>59.82800084044058</v>
       </c>
       <c r="I29" t="n">
-        <v>59.82800084044057</v>
+        <v>59.82800084044058</v>
       </c>
       <c r="J29" t="n">
-        <v>244.1224089663729</v>
+        <v>194.6777111137731</v>
       </c>
       <c r="K29" t="n">
-        <v>596.5586448642823</v>
+        <v>547.1139470116825</v>
       </c>
       <c r="L29" t="n">
-        <v>1056.739881802355</v>
+        <v>1007.295183949755</v>
       </c>
       <c r="M29" t="n">
-        <v>1562.27491190857</v>
+        <v>1512.83021405597</v>
       </c>
       <c r="N29" t="n">
-        <v>2052.902134449412</v>
+        <v>2003.457436596812</v>
       </c>
       <c r="O29" t="n">
-        <v>2470.202582775373</v>
+        <v>2420.757884922773</v>
       </c>
       <c r="P29" t="n">
-        <v>2761.210645231952</v>
+        <v>2761.210645231953</v>
       </c>
       <c r="Q29" t="n">
         <v>2967.938762771616</v>
       </c>
       <c r="R29" t="n">
-        <v>2991.400042022028</v>
+        <v>2991.400042022029</v>
       </c>
       <c r="S29" t="n">
-        <v>2918.746991408148</v>
+        <v>2918.746991408149</v>
       </c>
       <c r="T29" t="n">
-        <v>2808.963969894926</v>
+        <v>2808.963969894927</v>
       </c>
       <c r="U29" t="n">
-        <v>2668.654558364687</v>
+        <v>2722.994423149341</v>
       </c>
       <c r="V29" t="n">
-        <v>2446.251209016395</v>
+        <v>2500.591073801048</v>
       </c>
       <c r="W29" t="n">
-        <v>2198.292203629762</v>
+        <v>2252.632068414416</v>
       </c>
       <c r="X29" t="n">
-        <v>1930.837987907022</v>
+        <v>1985.177852691676</v>
       </c>
       <c r="Y29" t="n">
-        <v>1651.872057238626</v>
+        <v>1706.21192202328</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>924.4281438823803</v>
+        <v>939.1407613424846</v>
       </c>
       <c r="C30" t="n">
-        <v>762.724471123335</v>
+        <v>777.4370885834393</v>
       </c>
       <c r="D30" t="n">
-        <v>623.885834113547</v>
+        <v>638.5984515736513</v>
       </c>
       <c r="E30" t="n">
-        <v>476.8578241704183</v>
+        <v>491.5704416305226</v>
       </c>
       <c r="F30" t="n">
-        <v>342.1640261202926</v>
+        <v>356.8766435803969</v>
       </c>
       <c r="G30" t="n">
-        <v>213.4355261435772</v>
+        <v>228.1481436036815</v>
       </c>
       <c r="H30" t="n">
         <v>128.2102861503796</v>
       </c>
       <c r="I30" t="n">
-        <v>59.82800084044057</v>
+        <v>59.82800084044058</v>
       </c>
       <c r="J30" t="n">
         <v>120.0821473735467</v>
@@ -6567,25 +6567,25 @@
         <v>2503.976775677588</v>
       </c>
       <c r="S30" t="n">
-        <v>2351.177288690328</v>
+        <v>2365.889906150433</v>
       </c>
       <c r="T30" t="n">
-        <v>2162.492184856314</v>
+        <v>2177.204802316418</v>
       </c>
       <c r="U30" t="n">
-        <v>1943.997392454624</v>
+        <v>1958.710009914728</v>
       </c>
       <c r="V30" t="n">
-        <v>1715.601769902958</v>
+        <v>1730.314387363062</v>
       </c>
       <c r="W30" t="n">
-        <v>1474.285901136268</v>
+        <v>1488.998518596372</v>
       </c>
       <c r="X30" t="n">
-        <v>1276.368913014062</v>
+        <v>1291.081530474167</v>
       </c>
       <c r="Y30" t="n">
-        <v>1083.847586663641</v>
+        <v>1098.560204123746</v>
       </c>
     </row>
     <row r="31">
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>357.4694977237343</v>
+        <v>357.4694977237341</v>
       </c>
       <c r="C31" t="n">
-        <v>302.429452941181</v>
+        <v>302.4294529411809</v>
       </c>
       <c r="D31" t="n">
         <v>263.9334845247101</v>
       </c>
       <c r="E31" t="n">
-        <v>226.5003950417953</v>
+        <v>226.5003950417955</v>
       </c>
       <c r="F31" t="n">
-        <v>188.5956648233388</v>
+        <v>188.5956648233391</v>
       </c>
       <c r="G31" t="n">
         <v>134.2518409469554</v>
       </c>
       <c r="H31" t="n">
-        <v>89.45512048199565</v>
+        <v>89.45512048199568</v>
       </c>
       <c r="I31" t="n">
-        <v>59.82800084044057</v>
+        <v>59.82800084044058</v>
       </c>
       <c r="J31" t="n">
-        <v>113.2617651555979</v>
+        <v>113.261765155598</v>
       </c>
       <c r="K31" t="n">
-        <v>259.1618167533679</v>
+        <v>259.1618167533681</v>
       </c>
       <c r="L31" t="n">
-        <v>472.0647600067541</v>
+        <v>472.0647600067542</v>
       </c>
       <c r="M31" t="n">
         <v>702.3541299874826</v>
@@ -6652,19 +6652,19 @@
         <v>1140.938886220941</v>
       </c>
       <c r="U31" t="n">
-        <v>968.3245714658077</v>
+        <v>968.3245714658076</v>
       </c>
       <c r="V31" t="n">
-        <v>822.1651917799967</v>
+        <v>822.1651917799966</v>
       </c>
       <c r="W31" t="n">
-        <v>650.5847150531622</v>
+        <v>650.5847150531621</v>
       </c>
       <c r="X31" t="n">
-        <v>533.9081757043041</v>
+        <v>533.9081757043042</v>
       </c>
       <c r="Y31" t="n">
-        <v>426.4489416523476</v>
+        <v>426.4489416523477</v>
       </c>
     </row>
     <row r="32">
@@ -6683,64 +6683,64 @@
         <v>1060.508032799334</v>
       </c>
       <c r="E32" t="n">
-        <v>811.3355268671176</v>
+        <v>811.3355268671173</v>
       </c>
       <c r="F32" t="n">
-        <v>542.7975501389644</v>
+        <v>542.797550138964</v>
       </c>
       <c r="G32" t="n">
-        <v>272.3067775548288</v>
+        <v>272.3067775548283</v>
       </c>
       <c r="H32" t="n">
-        <v>85.09871711381395</v>
+        <v>85.09871711381412</v>
       </c>
       <c r="I32" t="n">
-        <v>57.89473228428648</v>
+        <v>57.8947322842865</v>
       </c>
       <c r="J32" t="n">
-        <v>193.9690545091714</v>
+        <v>140.0881281080486</v>
       </c>
       <c r="K32" t="n">
-        <v>576.8249375577933</v>
+        <v>380.2285001528314</v>
       </c>
       <c r="L32" t="n">
-        <v>1067.425821646579</v>
+        <v>728.1138732377776</v>
       </c>
       <c r="M32" t="n">
-        <v>1603.380498903506</v>
+        <v>1264.068550494705</v>
       </c>
       <c r="N32" t="n">
-        <v>2124.427368595061</v>
+        <v>1785.115420186259</v>
       </c>
       <c r="O32" t="n">
-        <v>2572.147464071734</v>
+        <v>2232.835515662932</v>
       </c>
       <c r="P32" t="n">
-        <v>2800.304360527787</v>
+        <v>2603.707923122824</v>
       </c>
       <c r="Q32" t="n">
-        <v>2894.736614214324</v>
+        <v>2840.8556878132</v>
       </c>
       <c r="R32" t="n">
-        <v>2894.736614214324</v>
+        <v>2894.736614214325</v>
       </c>
       <c r="S32" t="n">
-        <v>2853.120852806355</v>
+        <v>2853.120852806356</v>
       </c>
       <c r="T32" t="n">
-        <v>2774.375120499043</v>
+        <v>2774.375120499044</v>
       </c>
       <c r="U32" t="n">
-        <v>2665.102998174713</v>
+        <v>2665.102998174714</v>
       </c>
       <c r="V32" t="n">
-        <v>2473.736938032331</v>
+        <v>2473.736938032332</v>
       </c>
       <c r="W32" t="n">
-        <v>2256.815221851608</v>
+        <v>2256.815221851609</v>
       </c>
       <c r="X32" t="n">
-        <v>2020.398295334778</v>
+        <v>2020.398295334779</v>
       </c>
       <c r="Y32" t="n">
         <v>1772.469653872293</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>922.4948753262258</v>
+        <v>922.4948753262263</v>
       </c>
       <c r="C33" t="n">
-        <v>760.7912025671806</v>
+        <v>760.791202567181</v>
       </c>
       <c r="D33" t="n">
-        <v>621.9525655573926</v>
+        <v>621.9525655573931</v>
       </c>
       <c r="E33" t="n">
-        <v>474.9245556142639</v>
+        <v>474.9245556142643</v>
       </c>
       <c r="F33" t="n">
-        <v>340.2307575641382</v>
+        <v>340.2307575641387</v>
       </c>
       <c r="G33" t="n">
-        <v>211.5022575874228</v>
+        <v>211.5022575874233</v>
       </c>
       <c r="H33" t="n">
-        <v>111.5644001341208</v>
+        <v>111.5644001341213</v>
       </c>
       <c r="I33" t="n">
-        <v>57.89473228428648</v>
+        <v>57.8947322842865</v>
       </c>
       <c r="J33" t="n">
         <v>118.1488788173926</v>
@@ -6783,16 +6783,16 @@
         <v>347.6394313775813</v>
       </c>
       <c r="L33" t="n">
-        <v>713.4612765476969</v>
+        <v>713.461276547697</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.494630057923</v>
+        <v>1198.494630057924</v>
       </c>
       <c r="N33" t="n">
-        <v>1709.760276181045</v>
+        <v>1709.760276181046</v>
       </c>
       <c r="O33" t="n">
-        <v>2101.960226965196</v>
+        <v>2101.960226965197</v>
       </c>
       <c r="P33" t="n">
         <v>2404.056146240894</v>
@@ -6801,22 +6801,22 @@
         <v>2561.827776026488</v>
       </c>
       <c r="R33" t="n">
-        <v>2502.043507121433</v>
+        <v>2502.043507121434</v>
       </c>
       <c r="S33" t="n">
         <v>2349.244020134174</v>
       </c>
       <c r="T33" t="n">
-        <v>2160.558916300159</v>
+        <v>2160.55891630016</v>
       </c>
       <c r="U33" t="n">
-        <v>1942.064123898469</v>
+        <v>1942.06412389847</v>
       </c>
       <c r="V33" t="n">
-        <v>1713.668501346803</v>
+        <v>1713.668501346804</v>
       </c>
       <c r="W33" t="n">
-        <v>1472.352632580113</v>
+        <v>1472.352632580114</v>
       </c>
       <c r="X33" t="n">
         <v>1274.435644457908</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>139.6853742905645</v>
+        <v>139.6853742905654</v>
       </c>
       <c r="C34" t="n">
-        <v>115.6826187139214</v>
+        <v>115.6826187139221</v>
       </c>
       <c r="D34" t="n">
-        <v>108.2239395033606</v>
+        <v>108.2239395033612</v>
       </c>
       <c r="E34" t="n">
-        <v>101.828139226356</v>
+        <v>101.8281392263564</v>
       </c>
       <c r="F34" t="n">
-        <v>94.96069821380961</v>
+        <v>94.96069821380991</v>
       </c>
       <c r="G34" t="n">
-        <v>71.65416354333614</v>
+        <v>71.6541635433363</v>
       </c>
       <c r="H34" t="n">
-        <v>57.89473228428648</v>
+        <v>57.8947322842865</v>
       </c>
       <c r="I34" t="n">
-        <v>57.89473228428648</v>
+        <v>59.27683947431075</v>
       </c>
       <c r="J34" t="n">
-        <v>57.89473228428648</v>
+        <v>143.1302509401805</v>
       </c>
       <c r="K34" t="n">
-        <v>91.49892002892989</v>
+        <v>319.4499496886629</v>
       </c>
       <c r="L34" t="n">
-        <v>192.1059994291894</v>
+        <v>498.6539047325093</v>
       </c>
       <c r="M34" t="n">
-        <v>452.8150165606303</v>
+        <v>616.647410860111</v>
       </c>
       <c r="N34" t="n">
-        <v>630.1246898593893</v>
+        <v>735.0697526097114</v>
       </c>
       <c r="O34" t="n">
-        <v>728.5883363550789</v>
+        <v>833.533399105401</v>
       </c>
       <c r="P34" t="n">
-        <v>791.5568200832167</v>
+        <v>896.5018828335388</v>
       </c>
       <c r="Q34" t="n">
-        <v>896.5018828335366</v>
+        <v>896.5018828335388</v>
       </c>
       <c r="R34" t="n">
-        <v>892.5933154095914</v>
+        <v>892.5933154095934</v>
       </c>
       <c r="S34" t="n">
-        <v>824.4967667749554</v>
+        <v>824.4967667749573</v>
       </c>
       <c r="T34" t="n">
-        <v>736.9310275523108</v>
+        <v>736.9310275523126</v>
       </c>
       <c r="U34" t="n">
-        <v>595.3540020030872</v>
+        <v>595.3540020030888</v>
       </c>
       <c r="V34" t="n">
-        <v>480.2319115231863</v>
+        <v>480.2319115231878</v>
       </c>
       <c r="W34" t="n">
-        <v>339.6887240022619</v>
+        <v>339.6887240022633</v>
       </c>
       <c r="X34" t="n">
-        <v>254.0494738593142</v>
+        <v>254.0494738593154</v>
       </c>
       <c r="Y34" t="n">
-        <v>177.6275290132678</v>
+        <v>177.6275290132689</v>
       </c>
     </row>
     <row r="35">
@@ -6914,43 +6914,43 @@
         <v>1361.887812572759</v>
       </c>
       <c r="C35" t="n">
-        <v>1147.761190413098</v>
+        <v>1147.761190413099</v>
       </c>
       <c r="D35" t="n">
-        <v>942.744362147854</v>
+        <v>942.7443621478543</v>
       </c>
       <c r="E35" t="n">
-        <v>715.765778761493</v>
+        <v>715.7657787614934</v>
       </c>
       <c r="F35" t="n">
-        <v>469.4217245791957</v>
+        <v>469.4217245791959</v>
       </c>
       <c r="G35" t="n">
-        <v>221.1248745409159</v>
+        <v>221.1248745409162</v>
       </c>
       <c r="H35" t="n">
-        <v>56.11073664575746</v>
+        <v>56.11073664575747</v>
       </c>
       <c r="I35" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J35" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K35" t="n">
-        <v>527.7073651707066</v>
+        <v>692.175139661739</v>
       </c>
       <c r="L35" t="n">
-        <v>875.5927382556529</v>
+        <v>1080.236268659741</v>
       </c>
       <c r="M35" t="n">
-        <v>1268.831904508741</v>
+        <v>1473.475434912829</v>
       </c>
       <c r="N35" t="n">
-        <v>1811.631037687489</v>
+        <v>1851.806793600545</v>
       </c>
       <c r="O35" t="n">
-        <v>2116.635622160323</v>
+        <v>2156.811378073379</v>
       </c>
       <c r="P35" t="n">
         <v>2384.968274529432</v>
@@ -6962,13 +6962,13 @@
         <v>2555.033718104287</v>
       </c>
       <c r="S35" t="n">
-        <v>2535.611879242173</v>
+        <v>2535.611879242174</v>
       </c>
       <c r="T35" t="n">
-        <v>2479.060069480717</v>
+        <v>2479.060069480718</v>
       </c>
       <c r="U35" t="n">
-        <v>2391.981869702243</v>
+        <v>2391.981869702244</v>
       </c>
       <c r="V35" t="n">
         <v>2222.809732105717</v>
@@ -6977,10 +6977,10 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X35" t="n">
-        <v>1813.858934499875</v>
+        <v>1813.858934499876</v>
       </c>
       <c r="Y35" t="n">
-        <v>1588.124215583245</v>
+        <v>1588.124215583246</v>
       </c>
     </row>
     <row r="36">
@@ -7011,13 +7011,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I36" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J36" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K36" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L36" t="n">
         <v>706.6672186254962</v>
@@ -7038,25 +7038,25 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R36" t="n">
-        <v>2495.249449199233</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S36" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T36" t="n">
-        <v>2153.764858377959</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U36" t="n">
-        <v>1935.270065976269</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V36" t="n">
-        <v>1706.874443424603</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W36" t="n">
-        <v>1465.558574657913</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X36" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y36" t="n">
         <v>1089.832877645391</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.02211951749089</v>
+        <v>54.02211951749091</v>
       </c>
       <c r="C37" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="D37" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="E37" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="F37" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G37" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="H37" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="I37" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J37" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="K37" t="n">
-        <v>84.70486210672914</v>
+        <v>84.70486210672917</v>
       </c>
       <c r="L37" t="n">
         <v>185.3119415069887</v>
@@ -7111,7 +7111,7 @@
         <v>520.1914358798805</v>
       </c>
       <c r="P37" t="n">
-        <v>629.3786802696717</v>
+        <v>583.1599196080183</v>
       </c>
       <c r="Q37" t="n">
         <v>629.3786802696717</v>
@@ -7126,19 +7126,19 @@
         <v>518.1042375041027</v>
       </c>
       <c r="U37" t="n">
-        <v>398.7211345007348</v>
+        <v>398.7211345007349</v>
       </c>
       <c r="V37" t="n">
-        <v>305.7929665666896</v>
+        <v>305.7929665666898</v>
       </c>
       <c r="W37" t="n">
-        <v>187.443701591621</v>
+        <v>187.4437015916211</v>
       </c>
       <c r="X37" t="n">
         <v>123.9983739945291</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.77035169433844</v>
+        <v>69.77035169433847</v>
       </c>
     </row>
     <row r="38">
@@ -7151,58 +7151,58 @@
         <v>1361.887812572759</v>
       </c>
       <c r="C38" t="n">
-        <v>1147.761190413099</v>
+        <v>1147.761190413098</v>
       </c>
       <c r="D38" t="n">
-        <v>942.7443621478542</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E38" t="n">
         <v>715.765778761493</v>
       </c>
       <c r="F38" t="n">
-        <v>469.4217245791956</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G38" t="n">
         <v>221.1248745409159</v>
       </c>
       <c r="H38" t="n">
-        <v>56.11073664575745</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I38" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J38" t="n">
         <v>287.5669931259238</v>
       </c>
       <c r="K38" t="n">
-        <v>692.175139661739</v>
+        <v>567.8831210837623</v>
       </c>
       <c r="L38" t="n">
-        <v>1155.869458548059</v>
+        <v>915.7684941687086</v>
       </c>
       <c r="M38" t="n">
-        <v>1549.108624801147</v>
+        <v>1473.475434912829</v>
       </c>
       <c r="N38" t="n">
-        <v>1927.439983488862</v>
+        <v>1851.806793600545</v>
       </c>
       <c r="O38" t="n">
-        <v>2232.444567961696</v>
+        <v>2156.811378073378</v>
       </c>
       <c r="P38" t="n">
-        <v>2460.601464417749</v>
+        <v>2384.968274529432</v>
       </c>
       <c r="Q38" t="n">
-        <v>2555.033718104286</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R38" t="n">
-        <v>2555.033718104286</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="S38" t="n">
         <v>2535.611879242173</v>
       </c>
       <c r="T38" t="n">
-        <v>2479.060069480716</v>
+        <v>2479.060069480717</v>
       </c>
       <c r="U38" t="n">
         <v>2391.981869702243</v>
@@ -7217,7 +7217,7 @@
         <v>1813.858934499875</v>
       </c>
       <c r="Y38" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="39">
@@ -7248,13 +7248,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I39" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J39" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K39" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L39" t="n">
         <v>706.6672186254962</v>
@@ -7263,37 +7263,37 @@
         <v>1191.700572135723</v>
       </c>
       <c r="N39" t="n">
-        <v>1702.966218258844</v>
+        <v>1702.966218258845</v>
       </c>
       <c r="O39" t="n">
-        <v>2095.166169042995</v>
+        <v>2095.166169042996</v>
       </c>
       <c r="P39" t="n">
-        <v>2397.262088318692</v>
+        <v>2397.262088318693</v>
       </c>
       <c r="Q39" t="n">
-        <v>2555.033718104286</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R39" t="n">
         <v>2495.249449199232</v>
       </c>
       <c r="S39" t="n">
-        <v>2342.449962211972</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T39" t="n">
         <v>2153.764858377958</v>
       </c>
       <c r="U39" t="n">
-        <v>1935.270065976268</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V39" t="n">
-        <v>1706.874443424602</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W39" t="n">
-        <v>1465.558574657912</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X39" t="n">
-        <v>1267.641586535706</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y39" t="n">
         <v>1089.832877645391</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.02211951749089</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C40" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D40" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E40" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="F40" t="n">
-        <v>52.21328648670345</v>
+        <v>66.12215891288227</v>
       </c>
       <c r="G40" t="n">
-        <v>51.10067436208573</v>
+        <v>65.00954678826454</v>
       </c>
       <c r="H40" t="n">
-        <v>51.10067436208573</v>
+        <v>65.00954678826454</v>
       </c>
       <c r="I40" t="n">
-        <v>51.10067436208573</v>
+        <v>65.00954678826454</v>
       </c>
       <c r="J40" t="n">
-        <v>51.10067436208573</v>
+        <v>65.00954678826454</v>
       </c>
       <c r="K40" t="n">
-        <v>84.70486210672914</v>
+        <v>98.61373453290796</v>
       </c>
       <c r="L40" t="n">
-        <v>185.3119415069887</v>
+        <v>199.2208139331674</v>
       </c>
       <c r="M40" t="n">
-        <v>349.5242082962438</v>
+        <v>317.2143200607692</v>
       </c>
       <c r="N40" t="n">
-        <v>467.9465500458442</v>
+        <v>435.6366618103696</v>
       </c>
       <c r="O40" t="n">
-        <v>566.4101965415339</v>
+        <v>534.1003083060592</v>
       </c>
       <c r="P40" t="n">
-        <v>629.3786802696717</v>
+        <v>597.068792034197</v>
       </c>
       <c r="Q40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S40" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T40" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U40" t="n">
-        <v>398.7211345007348</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V40" t="n">
-        <v>305.7929665666896</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W40" t="n">
-        <v>187.443701591621</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X40" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.77035169433844</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="41">
@@ -7391,10 +7391,10 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D41" t="n">
-        <v>942.7443621478541</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E41" t="n">
-        <v>715.7657787614932</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F41" t="n">
         <v>469.4217245791957</v>
@@ -7406,31 +7406,31 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I41" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J41" t="n">
-        <v>238.9081644362652</v>
+        <v>163.2749745479473</v>
       </c>
       <c r="K41" t="n">
-        <v>479.048536481048</v>
+        <v>403.4153465927301</v>
       </c>
       <c r="L41" t="n">
-        <v>826.9339095659942</v>
+        <v>915.7684941687087</v>
       </c>
       <c r="M41" t="n">
-        <v>1384.640850310115</v>
+        <v>1309.007660421797</v>
       </c>
       <c r="N41" t="n">
-        <v>1762.97220899783</v>
+        <v>1687.339019109512</v>
       </c>
       <c r="O41" t="n">
-        <v>2232.444567961697</v>
+        <v>1992.343603582346</v>
       </c>
       <c r="P41" t="n">
-        <v>2460.60146441775</v>
+        <v>2220.500500038399</v>
       </c>
       <c r="Q41" t="n">
-        <v>2555.033718104287</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R41" t="n">
         <v>2555.033718104287</v>
@@ -7454,7 +7454,7 @@
         <v>1813.858934499875</v>
       </c>
       <c r="Y41" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="42">
@@ -7464,13 +7464,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>915.700817404025</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C42" t="n">
-        <v>753.9971446449797</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D42" t="n">
-        <v>615.1585076351918</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E42" t="n">
         <v>482.8431151521678</v>
@@ -7485,16 +7485,16 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I42" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J42" t="n">
-        <v>111.354820895192</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K42" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L42" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M42" t="n">
         <v>1191.700572135723</v>
@@ -7512,28 +7512,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R42" t="n">
-        <v>2495.249449199232</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S42" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T42" t="n">
-        <v>2153.764858377958</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U42" t="n">
-        <v>1935.270065976268</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V42" t="n">
-        <v>1706.874443424602</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W42" t="n">
-        <v>1465.558574657912</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X42" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y42" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="43">
@@ -7543,52 +7543,52 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.02211951749091</v>
+        <v>54.02211951749089</v>
       </c>
       <c r="C43" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="D43" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="E43" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="F43" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="G43" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H43" t="n">
-        <v>59.36731927228439</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I43" t="n">
-        <v>59.36731927228439</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J43" t="n">
-        <v>59.36731927228439</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K43" t="n">
-        <v>92.9715070169278</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L43" t="n">
-        <v>193.5785864171873</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M43" t="n">
-        <v>311.572092544789</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N43" t="n">
-        <v>429.9944342943894</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O43" t="n">
-        <v>528.4580807900791</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P43" t="n">
-        <v>591.4265645182169</v>
+        <v>583.1599196080183</v>
       </c>
       <c r="Q43" t="n">
-        <v>629.3786802696717</v>
+        <v>611.4572037146872</v>
       </c>
       <c r="R43" t="n">
         <v>629.3786802696717</v>
@@ -7600,19 +7600,19 @@
         <v>518.1042375041027</v>
       </c>
       <c r="U43" t="n">
-        <v>398.7211345007349</v>
+        <v>398.7211345007348</v>
       </c>
       <c r="V43" t="n">
-        <v>305.7929665666898</v>
+        <v>305.7929665666896</v>
       </c>
       <c r="W43" t="n">
-        <v>187.4437015916211</v>
+        <v>187.443701591621</v>
       </c>
       <c r="X43" t="n">
         <v>123.9983739945291</v>
       </c>
       <c r="Y43" t="n">
-        <v>69.77035169433847</v>
+        <v>69.77035169433844</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1361.887812572758</v>
+        <v>1361.887812572759</v>
       </c>
       <c r="C44" t="n">
         <v>1147.761190413098</v>
@@ -7634,7 +7634,7 @@
         <v>715.765778761493</v>
       </c>
       <c r="F44" t="n">
-        <v>469.4217245791956</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G44" t="n">
         <v>221.1248745409159</v>
@@ -7649,25 +7649,25 @@
         <v>123.0992186348914</v>
       </c>
       <c r="K44" t="n">
-        <v>527.7073651707066</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L44" t="n">
-        <v>875.5927382556529</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M44" t="n">
-        <v>1384.640850310115</v>
+        <v>1104.364130017708</v>
       </c>
       <c r="N44" t="n">
-        <v>1762.97220899783</v>
+        <v>1522.87124461848</v>
       </c>
       <c r="O44" t="n">
-        <v>2067.976793470664</v>
+        <v>1827.875829091314</v>
       </c>
       <c r="P44" t="n">
-        <v>2296.133689926718</v>
+        <v>2220.500500038399</v>
       </c>
       <c r="Q44" t="n">
-        <v>2555.033718104287</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R44" t="n">
         <v>2555.033718104287</v>
@@ -7676,16 +7676,16 @@
         <v>2535.611879242173</v>
       </c>
       <c r="T44" t="n">
-        <v>2479.060069480716</v>
+        <v>2479.060069480717</v>
       </c>
       <c r="U44" t="n">
-        <v>2391.981869702242</v>
+        <v>2391.981869702243</v>
       </c>
       <c r="V44" t="n">
         <v>2222.809732105716</v>
       </c>
       <c r="W44" t="n">
-        <v>2028.081938470849</v>
+        <v>2028.08193847085</v>
       </c>
       <c r="X44" t="n">
         <v>1813.858934499875</v>
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>915.7008174040254</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C45" t="n">
-        <v>753.9971446449802</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D45" t="n">
-        <v>615.1585076351922</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E45" t="n">
-        <v>468.1304976920634</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F45" t="n">
-        <v>333.4366996419378</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G45" t="n">
-        <v>204.7081996652224</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H45" t="n">
-        <v>104.7703422119204</v>
+        <v>104.77034221192</v>
       </c>
       <c r="I45" t="n">
         <v>51.10067436208574</v>
@@ -7749,22 +7749,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R45" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S45" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T45" t="n">
-        <v>2153.764858377959</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U45" t="n">
-        <v>1935.270065976269</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V45" t="n">
-        <v>1706.874443424603</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W45" t="n">
-        <v>1465.558574657913</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X45" t="n">
         <v>1267.641586535707</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.90950739287318</v>
+        <v>54.02211951749091</v>
       </c>
       <c r="C46" t="n">
+        <v>52.21328648670347</v>
+      </c>
+      <c r="D46" t="n">
+        <v>52.21328648670347</v>
+      </c>
+      <c r="E46" t="n">
+        <v>52.21328648670347</v>
+      </c>
+      <c r="F46" t="n">
+        <v>52.21328648670347</v>
+      </c>
+      <c r="G46" t="n">
         <v>51.10067436208574</v>
       </c>
-      <c r="D46" t="n">
-        <v>65.54268635500837</v>
-      </c>
-      <c r="E46" t="n">
-        <v>65.54268635500837</v>
-      </c>
-      <c r="F46" t="n">
-        <v>65.54268635500837</v>
-      </c>
-      <c r="G46" t="n">
-        <v>64.43007423039064</v>
-      </c>
       <c r="H46" t="n">
-        <v>64.43007423039064</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I46" t="n">
-        <v>64.43007423039064</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J46" t="n">
-        <v>64.43007423039064</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K46" t="n">
-        <v>129.8110106437649</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L46" t="n">
-        <v>230.4180900440244</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M46" t="n">
-        <v>348.4115961716261</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N46" t="n">
-        <v>466.8339379212265</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O46" t="n">
-        <v>565.2975844169162</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P46" t="n">
-        <v>628.266068145054</v>
+        <v>583.1599196080183</v>
       </c>
       <c r="Q46" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R46" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="S46" t="n">
-        <v>582.3634420562738</v>
+        <v>583.4760541808915</v>
       </c>
       <c r="T46" t="n">
-        <v>516.991625379485</v>
+        <v>518.1042375041027</v>
       </c>
       <c r="U46" t="n">
-        <v>397.6085223761172</v>
+        <v>398.7211345007349</v>
       </c>
       <c r="V46" t="n">
-        <v>304.680354442072</v>
+        <v>305.7929665666898</v>
       </c>
       <c r="W46" t="n">
-        <v>186.3310894670034</v>
+        <v>187.4437015916211</v>
       </c>
       <c r="X46" t="n">
-        <v>122.8857618699114</v>
+        <v>123.9983739945291</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.65773956972075</v>
+        <v>69.77035169433847</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K2" t="n">
         <v>421.3890363425141</v>
@@ -7988,7 +7988,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N2" t="n">
-        <v>568.5510017355793</v>
+        <v>472.8639721885593</v>
       </c>
       <c r="O2" t="n">
         <v>495.0402356415689</v>
@@ -7997,7 +7997,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q2" t="n">
-        <v>253.0482606066192</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8061,13 +8061,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
-        <v>442.3938375090684</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
         <v>115.4839025616399</v>
       </c>
       <c r="N3" t="n">
-        <v>607.8524853807727</v>
+        <v>568.1538739953444</v>
       </c>
       <c r="O3" t="n">
         <v>512.0210150597484</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>219.8255997236959</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K5" t="n">
         <v>421.3890363425141</v>
@@ -8222,7 +8222,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M5" t="n">
-        <v>488.6805639936622</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N5" t="n">
         <v>568.5510017355793</v>
@@ -8234,7 +8234,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q5" t="n">
-        <v>276.0094878578761</v>
+        <v>253.0482606066194</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8298,22 +8298,22 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
-        <v>318.4713246793482</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M6" t="n">
-        <v>605.4165828749999</v>
+        <v>296.0133480637879</v>
       </c>
       <c r="N6" t="n">
-        <v>607.8524853807727</v>
+        <v>607.8524853807728</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P6" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8529,7 +8529,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>163.9183459425315</v>
+        <v>110.8430489735533</v>
       </c>
       <c r="K9" t="n">
         <v>343.8048081163522</v>
@@ -8538,19 +8538,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
-        <v>315.5450020690959</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O9" t="n">
-        <v>512.0210150597484</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P9" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8766,7 +8766,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
@@ -8781,13 +8781,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
-        <v>512.0210150597484</v>
+        <v>459.9184796430856</v>
       </c>
       <c r="P12" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>160.1351643640756</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9021,7 +9021,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>301.0362895393902</v>
+        <v>301.0362895393907</v>
       </c>
       <c r="Q15" t="n">
         <v>273.1004740566038</v>
@@ -9252,7 +9252,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>623.1450866466196</v>
+        <v>510.1797769540922</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>160.1351643640756</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9477,7 +9477,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
@@ -9498,7 +9498,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>160.1351643640756</v>
+        <v>220.9979386399411</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9714,7 +9714,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
@@ -9723,7 +9723,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>553.3140474583371</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
         <v>623.1450866466196</v>
@@ -9735,7 +9735,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>273.1004740566038</v>
+        <v>160.135164364076</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -10911,7 +10911,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>623.1450866466189</v>
+        <v>623.1450866466193</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -11136,7 +11136,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9183459425316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
         <v>343.8048081163522</v>
@@ -11394,7 +11394,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>273.1004740566038</v>
+        <v>273.1004740566032</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23258,10 +23258,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>88.64972539846723</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>255.66555961684</v>
+        <v>98.83586968253984</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.92652010774087</v>
+        <v>71.92652010774086</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,10 +23315,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>220.1793158548094</v>
+        <v>220.1793158548093</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>245.4794153327663</v>
       </c>
       <c r="X11" t="n">
         <v>264.7796735655129</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-13</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>277.4076971867455</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>216.0628961504551</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>30.14891663821016</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>108.6851912980902</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>163.4822116984365</v>
+        <v>220.1793158548093</v>
       </c>
       <c r="W14" t="n">
-        <v>245.4794153327662</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>264.7796735655128</v>
       </c>
       <c r="Y14" t="n">
-        <v>276.1762713617116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -24440,10 +24440,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>276.6729386146302</v>
       </c>
       <c r="C26" t="n">
-        <v>228.2145696337926</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24497,7 +24497,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>138.9063174149371</v>
+        <v>90.44794843409956</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24677,16 +24677,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>276.6729386146302</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>255.6655596168399</v>
       </c>
       <c r="E29" t="n">
-        <v>90.44794843410091</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24698,7 +24698,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>57.65886129508323</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24734,7 +24734,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>53.79646613680676</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>-1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>736405.9326351703</v>
+        <v>736405.9326351705</v>
       </c>
     </row>
     <row r="6">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>780220.9987442062</v>
+        <v>780220.9987442063</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>810174.3919185122</v>
+        <v>810174.3919185119</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>556527.4438582815</v>
+        <v>556527.4438582816</v>
       </c>
       <c r="C2" t="n">
-        <v>556527.4438582817</v>
+        <v>556527.4438582818</v>
       </c>
       <c r="D2" t="n">
-        <v>556527.4438582818</v>
+        <v>556527.4438582816</v>
       </c>
       <c r="E2" t="n">
-        <v>504519.1460051845</v>
+        <v>504519.1460051844</v>
       </c>
       <c r="F2" t="n">
         <v>504519.1460051842</v>
@@ -26329,31 +26329,31 @@
         <v>556527.4438582818</v>
       </c>
       <c r="H2" t="n">
-        <v>556527.4438582817</v>
+        <v>556527.4438582818</v>
       </c>
       <c r="I2" t="n">
-        <v>556527.4438582816</v>
+        <v>556527.4438582818</v>
       </c>
       <c r="J2" t="n">
-        <v>535340.8974667001</v>
+        <v>535340.8974667002</v>
       </c>
       <c r="K2" t="n">
-        <v>535340.8974666999</v>
+        <v>535340.8974667004</v>
       </c>
       <c r="L2" t="n">
+        <v>556527.443858281</v>
+      </c>
+      <c r="M2" t="n">
         <v>556527.4438582812</v>
-      </c>
-      <c r="M2" t="n">
-        <v>556527.4438582815</v>
       </c>
       <c r="N2" t="n">
         <v>556527.4438582814</v>
       </c>
       <c r="O2" t="n">
+        <v>556527.4438582812</v>
+      </c>
+      <c r="P2" t="n">
         <v>556527.4438582814</v>
-      </c>
-      <c r="P2" t="n">
-        <v>556527.4438582815</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>7506.640144976756</v>
+        <v>7506.640144976739</v>
       </c>
       <c r="E3" t="n">
-        <v>116101.0852352526</v>
+        <v>116101.0852352527</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>48202.39618561637</v>
+        <v>48202.39618561631</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>209669.0467558701</v>
+        <v>209669.0467558702</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>72783.92923669719</v>
+        <v>72783.92923669703</v>
       </c>
       <c r="M3" t="n">
-        <v>17577.58665631775</v>
+        <v>17577.58665631786</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>42541.73622095061</v>
+        <v>42541.73622095065</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>214112.3419115255</v>
+        <v>214112.3419115254</v>
       </c>
       <c r="C4" t="n">
         <v>214112.3419115255</v>
       </c>
       <c r="D4" t="n">
-        <v>208183.1070948236</v>
+        <v>208183.1070948235</v>
       </c>
       <c r="E4" t="n">
         <v>160591.1709332012</v>
       </c>
       <c r="F4" t="n">
-        <v>160591.1709332012</v>
+        <v>160591.1709332013</v>
       </c>
       <c r="G4" t="n">
         <v>201285.5669603255</v>
@@ -26442,7 +26442,7 @@
         <v>182981.0487160847</v>
       </c>
       <c r="K4" t="n">
-        <v>182981.0487160846</v>
+        <v>182981.0487160847</v>
       </c>
       <c r="L4" t="n">
         <v>199408.1790316334</v>
@@ -26479,7 +26479,7 @@
         <v>46637.87924189358</v>
       </c>
       <c r="F5" t="n">
-        <v>46637.87924189358</v>
+        <v>46637.87924189359</v>
       </c>
       <c r="G5" t="n">
         <v>51703.28829805431</v>
@@ -26491,16 +26491,16 @@
         <v>51703.28829805431</v>
       </c>
       <c r="J5" t="n">
-        <v>55005.24122284443</v>
+        <v>55005.24122284444</v>
       </c>
       <c r="K5" t="n">
-        <v>55005.24122284442</v>
+        <v>55005.24122284444</v>
       </c>
       <c r="L5" t="n">
         <v>56119.13824775647</v>
       </c>
       <c r="M5" t="n">
-        <v>52802.81689264637</v>
+        <v>52802.81689264638</v>
       </c>
       <c r="N5" t="n">
         <v>52802.81689264637</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>110375.7011742946</v>
+        <v>110375.7011742948</v>
       </c>
       <c r="C6" t="n">
-        <v>278318.3514125219</v>
+        <v>278318.351412522</v>
       </c>
       <c r="D6" t="n">
-        <v>275271.6619815701</v>
+        <v>275271.6619815699</v>
       </c>
       <c r="E6" t="n">
-        <v>181189.0105948371</v>
+        <v>181009.6716367228</v>
       </c>
       <c r="F6" t="n">
-        <v>297290.0958300894</v>
+        <v>297110.7568719751</v>
       </c>
       <c r="G6" t="n">
-        <v>255336.1924142856</v>
+        <v>255336.1924142857</v>
       </c>
       <c r="H6" t="n">
-        <v>303538.5885999019</v>
+        <v>303538.588599902</v>
       </c>
       <c r="I6" t="n">
-        <v>303538.5885999018</v>
+        <v>303538.588599902</v>
       </c>
       <c r="J6" t="n">
-        <v>87685.56077190084</v>
+        <v>87612.50371537813</v>
       </c>
       <c r="K6" t="n">
-        <v>297354.6075277709</v>
+        <v>297281.5504712486</v>
       </c>
       <c r="L6" t="n">
         <v>228216.1973421942</v>
       </c>
       <c r="M6" t="n">
-        <v>287164.189857106</v>
+        <v>287164.1898571056</v>
       </c>
       <c r="N6" t="n">
-        <v>304741.7765134236</v>
+        <v>304741.7765134235</v>
       </c>
       <c r="O6" t="n">
-        <v>262200.040292473</v>
+        <v>262200.0402924728</v>
       </c>
       <c r="P6" t="n">
-        <v>304741.7765134237</v>
+        <v>304741.7765134235</v>
       </c>
     </row>
   </sheetData>
@@ -26695,25 +26695,25 @@
         <v>113.4301655082087</v>
       </c>
       <c r="F2" t="n">
+        <v>113.4301655082088</v>
+      </c>
+      <c r="G2" t="n">
+        <v>173.6831607402291</v>
+      </c>
+      <c r="H2" t="n">
+        <v>173.6831607402291</v>
+      </c>
+      <c r="I2" t="n">
+        <v>173.6831607402291</v>
+      </c>
+      <c r="J2" t="n">
         <v>113.4301655082087</v>
-      </c>
-      <c r="G2" t="n">
-        <v>173.6831607402292</v>
-      </c>
-      <c r="H2" t="n">
-        <v>173.6831607402292</v>
-      </c>
-      <c r="I2" t="n">
-        <v>173.6831607402292</v>
-      </c>
-      <c r="J2" t="n">
-        <v>113.4301655082088</v>
       </c>
       <c r="K2" t="n">
         <v>113.4301655082087</v>
       </c>
       <c r="L2" t="n">
-        <v>144.1570818220598</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="M2" t="n">
         <v>166.1290651424569</v>
@@ -26796,37 +26796,37 @@
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>610.2289252924996</v>
+        <v>610.2289252924998</v>
       </c>
       <c r="F4" t="n">
-        <v>610.2289252924996</v>
+        <v>610.2289252924998</v>
       </c>
       <c r="G4" t="n">
-        <v>610.2289252924996</v>
+        <v>610.2289252924998</v>
       </c>
       <c r="H4" t="n">
-        <v>610.2289252924996</v>
+        <v>610.2289252924998</v>
       </c>
       <c r="I4" t="n">
-        <v>610.2289252924996</v>
+        <v>610.2289252924998</v>
       </c>
       <c r="J4" t="n">
-        <v>747.850010505507</v>
+        <v>747.8500105055073</v>
       </c>
       <c r="K4" t="n">
-        <v>747.850010505507</v>
+        <v>747.8500105055073</v>
       </c>
       <c r="L4" t="n">
-        <v>723.684153553581</v>
+        <v>723.6841535535813</v>
       </c>
       <c r="M4" t="n">
+        <v>638.7584295260718</v>
+      </c>
+      <c r="N4" t="n">
+        <v>638.7584295260717</v>
+      </c>
+      <c r="O4" t="n">
         <v>638.7584295260716</v>
-      </c>
-      <c r="N4" t="n">
-        <v>638.7584295260716</v>
-      </c>
-      <c r="O4" t="n">
-        <v>638.7584295260717</v>
       </c>
       <c r="P4" t="n">
         <v>638.7584295260717</v>
@@ -26917,10 +26917,10 @@
         <v>113.4301655082087</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>60.25299523202047</v>
+        <v>60.25299523202038</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>53.17717027618826</v>
+        <v>53.17717027618832</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>90.97991154587149</v>
+        <v>90.97991154587129</v>
       </c>
       <c r="M2" t="n">
-        <v>21.97198332039719</v>
+        <v>21.97198332039733</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>53.17717027618826</v>
+        <v>53.17717027618832</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>24.16585695192595</v>
+        <v>24.16585695192589</v>
       </c>
       <c r="E4" t="n">
-        <v>84.92572402750932</v>
+        <v>84.92572402750943</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.7584295260715</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>113.4301655082087</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>60.25299523202047</v>
+        <v>60.25299523202038</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>53.17717027618826</v>
+        <v>53.17717027618832</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>24.16585695192595</v>
+        <v>24.16585695192589</v>
       </c>
       <c r="M4" t="n">
-        <v>84.92572402750932</v>
+        <v>84.92572402750943</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
         <v>378.1144210805207</v>
@@ -27388,16 +27388,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>178.4419829363912</v>
       </c>
       <c r="H2" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>247.3542170773691</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>389.6064368699203</v>
@@ -27467,10 +27467,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
         <v>98.93847887876893</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>62.03395618195792</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27521,7 +27521,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>165.6986129668613</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
-        <v>85.38694352358669</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
         <v>59.456666199969</v>
@@ -27603,7 +27603,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
-        <v>219.8148072196457</v>
+        <v>42.0265205695371</v>
       </c>
     </row>
     <row r="5">
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>51.14139157193256</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>87.19492491960324</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
         <v>333.6094813630181</v>
@@ -27679,7 +27679,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>389.6064368699203</v>
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>31.09359650135295</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>133.3468600696244</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>43.36111501110398</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
         <v>150.4889240962943</v>
@@ -27789,13 +27789,13 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>157.7789187685189</v>
+        <v>12.96723722365383</v>
       </c>
       <c r="I7" t="n">
-        <v>117.2031602408626</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>148.0265635717656</v>
@@ -27828,7 +27828,7 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>258.1279513971616</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>359.6549333481566</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>63.11549348243614</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>378.2098390737216</v>
@@ -27938,16 +27938,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>7.276213278861533</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27980,10 +27980,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -27992,7 +27992,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>24.68645909039981</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28017,16 +28017,16 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>99.71558964164922</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
         <v>142.7610139533483</v>
@@ -28056,16 +28056,16 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>148.0265635717656</v>
+        <v>117.1789128644329</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
@@ -28111,31 +28111,31 @@
         <v>113.4301655082087</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
         <v>113.4301655082087</v>
       </c>
-      <c r="K11" t="n">
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>85.71296083956645</v>
+      </c>
+      <c r="Q11" t="n">
         <v>113.4301655082087</v>
       </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>109.4112227086695</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
       <c r="R11" t="n">
-        <v>89.73190363910518</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="S11" t="n">
         <v>113.4301655082087</v>
@@ -28169,7 +28169,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>26.34431243638159</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -28181,10 +28181,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>11.85262580694126</v>
       </c>
       <c r="H12" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -28220,7 +28220,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -28324,34 +28324,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="C14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="D14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="E14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="F14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="G14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="H14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="I14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="J14" t="n">
-        <v>109.4112227086695</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="K14" t="n">
-        <v>113.4301655082087</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28360,40 +28360,40 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>113.4301655082087</v>
+        <v>85.71296083956605</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>89.73190363910518</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="S14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="T14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="U14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="V14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="W14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="X14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="Y14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
     </row>
     <row r="15">
@@ -28418,7 +28418,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -28451,10 +28451,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>11.85262580694094</v>
       </c>
       <c r="S15" t="n">
-        <v>113.4301655082087</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -28472,7 +28472,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>11.85262580694192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="C16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="D16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="E16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="F16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="G16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="H16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="I16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="J16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="K16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="L16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="M16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="N16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="O16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="P16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="Q16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="R16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="S16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="T16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="U16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="V16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="W16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="X16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="Y16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="C17" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="D17" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="E17" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="F17" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="G17" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="H17" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="I17" t="n">
-        <v>171.0890268032919</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28597,40 +28597,40 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>78.63713588373378</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>173.6831607402292</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>76.04300194679729</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="R17" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="S17" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="T17" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="U17" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="V17" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="W17" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="X17" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="Y17" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
     </row>
     <row r="18">
@@ -28643,7 +28643,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>125.2827913151505</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -28694,7 +28694,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>125.2827913151499</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
@@ -28743,7 +28743,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J19" t="n">
-        <v>41.88824376897679</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S19" t="n">
-        <v>173.6831607402292</v>
+        <v>156.1147383092373</v>
       </c>
       <c r="T19" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="U19" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="V19" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="W19" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="X19" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="Y19" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="C20" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="D20" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="E20" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="F20" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="G20" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="H20" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="I20" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28828,10 +28828,10 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>173.6831607402292</v>
+        <v>159.9942590479211</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -28840,7 +28840,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>159.9942590479205</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="T20" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="U20" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="V20" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="W20" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="X20" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="Y20" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
     </row>
     <row r="21">
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>66.09636509914614</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -28937,7 +28937,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>125.2827913151503</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="C22" t="n">
         <v>167.9198098429365</v>
@@ -28977,7 +28977,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I22" t="n">
-        <v>125.1925915223561</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J22" t="n">
         <v>59.456666199969</v>
@@ -29007,25 +29007,25 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S22" t="n">
-        <v>173.6831607402292</v>
+        <v>156.1147383092373</v>
       </c>
       <c r="T22" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="U22" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="V22" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="W22" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="X22" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="Y22" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="C23" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="D23" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="E23" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="F23" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="G23" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="H23" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="I23" t="n">
-        <v>171.0890268032919</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29065,46 +29065,46 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>78.63713588373355</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>173.6831607402292</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>76.04300194679723</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="R23" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="S23" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="T23" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="U23" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="V23" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="W23" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="X23" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="Y23" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
     </row>
     <row r="24">
@@ -29129,7 +29129,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>125.2827913151505</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -29162,10 +29162,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>66.09636509914596</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>173.6831607402292</v>
+        <v>156.1147383092373</v>
       </c>
       <c r="C25" t="n">
         <v>167.9198098429365</v>
@@ -29244,25 +29244,25 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S25" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="T25" t="n">
-        <v>156.1147383092369</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="U25" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="V25" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="W25" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="X25" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="Y25" t="n">
-        <v>173.6831607402292</v>
+        <v>173.6831607402291</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="C26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="D26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="E26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="F26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="G26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="H26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="I26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="J26" t="n">
-        <v>113.4301655082088</v>
+        <v>63.48602626315829</v>
       </c>
       <c r="K26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="L26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="M26" t="n">
-        <v>63.48602626315733</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="N26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="O26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="P26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Q26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="R26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="S26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="T26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="U26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="V26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="W26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="X26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Y26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
     </row>
     <row r="27">
@@ -29360,7 +29360,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14.5654912855033</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -29399,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="C28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="D28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="E28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="F28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="G28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="H28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="I28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="J28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="K28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="L28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="M28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="N28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="O28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="P28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Q28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="R28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="S28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="T28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="U28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="V28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="W28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="X28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Y28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
     </row>
     <row r="29">
@@ -29533,7 +29533,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="J29" t="n">
-        <v>113.4301655082087</v>
+        <v>63.48602626315846</v>
       </c>
       <c r="K29" t="n">
         <v>113.4301655082087</v>
@@ -29551,7 +29551,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="P29" t="n">
-        <v>63.48602626315733</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Q29" t="n">
         <v>113.4301655082087</v>
@@ -29606,7 +29606,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>14.56549128550327</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -29639,7 +29639,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>14.56549128550353</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>144.1570818220598</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="C32" t="n">
-        <v>144.1570818220598</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="D32" t="n">
-        <v>144.1570818220598</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="E32" t="n">
-        <v>144.1570818220598</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="F32" t="n">
-        <v>144.1570818220598</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="G32" t="n">
-        <v>144.1570818220598</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="H32" t="n">
-        <v>144.1570818220598</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="I32" t="n">
-        <v>144.1570818220598</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="J32" t="n">
-        <v>64.72300803240327</v>
+        <v>10.29782984945096</v>
       </c>
       <c r="K32" t="n">
-        <v>144.1570818220598</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>144.1570818220598</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>144.1570818220598</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="N32" t="n">
-        <v>144.1570818220598</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="O32" t="n">
-        <v>144.1570818220598</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="R32" t="n">
-        <v>89.73190363910518</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="S32" t="n">
-        <v>144.1570818220598</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="T32" t="n">
-        <v>144.1570818220598</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="U32" t="n">
-        <v>144.1570818220598</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="V32" t="n">
-        <v>144.1570818220598</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="W32" t="n">
-        <v>144.1570818220598</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="X32" t="n">
-        <v>144.1570818220598</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="Y32" t="n">
-        <v>144.1570818220598</v>
+        <v>144.1570818220596</v>
       </c>
     </row>
     <row r="33">
@@ -29846,7 +29846,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>14.56549128550359</v>
+        <v>14.56549128550316</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29904,43 +29904,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>144.1570818220598</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="C34" t="n">
-        <v>144.1570818220598</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="D34" t="n">
-        <v>144.1570818220598</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="E34" t="n">
-        <v>144.1570818220598</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="F34" t="n">
-        <v>144.1570818220598</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="G34" t="n">
-        <v>144.1570818220598</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="H34" t="n">
-        <v>144.1570818220598</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="I34" t="n">
-        <v>142.7610139533483</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="J34" t="n">
-        <v>59.456666199969</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>79.39078347837057</v>
       </c>
       <c r="M34" t="n">
-        <v>144.1570818220598</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>59.4821530799582</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -29949,31 +29949,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.1570818220598</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
-        <v>144.1570818220598</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="S34" t="n">
-        <v>144.1570818220598</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="T34" t="n">
-        <v>144.1570818220598</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="U34" t="n">
-        <v>144.1570818220598</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="V34" t="n">
-        <v>144.1570818220598</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="W34" t="n">
-        <v>144.1570818220598</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="X34" t="n">
-        <v>144.1570818220598</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="Y34" t="n">
-        <v>144.1570818220598</v>
+        <v>144.1570818220596</v>
       </c>
     </row>
     <row r="35">
@@ -30007,25 +30007,25 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K35" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>40.58157162934975</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>40.58157162934918</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -30131,7 +30131,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>14.56549128550347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30183,10 +30183,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>46.68561682995293</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>38.15196793284785</v>
+        <v>84.83758476280077</v>
       </c>
       <c r="R37" t="n">
         <v>148.0265635717656</v>
@@ -30247,14 +30247,14 @@
         <v>166.1290651424569</v>
       </c>
       <c r="K38" t="n">
+        <v>40.58157162934921</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="L38" t="n">
-        <v>116.9787331327005</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>89.73190363910518</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S38" t="n">
         <v>166.1290651424569</v>
@@ -30356,7 +30356,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>14.56549128550375</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -30368,7 +30368,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>14.56549128550435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30390,7 +30390,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="G40" t="n">
         <v>166.1290651424569</v>
@@ -30411,7 +30411,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>46.68561682995298</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>38.15196793284785</v>
+        <v>69.66436804482456</v>
       </c>
       <c r="R40" t="n">
         <v>148.0265635717656</v>
@@ -30481,31 +30481,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9787331327008</v>
+        <v>40.58157162934944</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
+      <c r="R41" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
         <v>166.1290651424569</v>
@@ -30545,7 +30545,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>14.56549128550375</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -30633,7 +30633,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="H43" t="n">
-        <v>166.1290651424569</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I43" t="n">
         <v>142.7610139533483</v>
@@ -30660,10 +30660,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>76.48743838886281</v>
+        <v>66.73508319210941</v>
       </c>
       <c r="R43" t="n">
-        <v>148.0265635717656</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S43" t="n">
         <v>166.1290651424569</v>
@@ -30721,28 +30721,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>40.58157162934947</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>116.9787331327009</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="R44" t="n">
-        <v>89.73190363910518</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S44" t="n">
         <v>166.1290651424569</v>
@@ -30794,7 +30794,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>14.56549128550326</v>
+        <v>14.56549128550371</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30858,7 +30858,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D46" t="n">
-        <v>166.1290651424569</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
         <v>150.4889240962943</v>
@@ -30879,7 +30879,7 @@
         <v>59.456666199969</v>
       </c>
       <c r="K46" t="n">
-        <v>32.09772592801092</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>38.15196793284785</v>
+        <v>84.83758476280077</v>
       </c>
       <c r="R46" t="n">
         <v>148.0265635717656</v>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K2" t="n">
         <v>242.5660323684674</v>
@@ -34708,7 +34708,7 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N2" t="n">
-        <v>382.1528875633492</v>
+        <v>286.4658580163292</v>
       </c>
       <c r="O2" t="n">
         <v>308.0854388614484</v>
@@ -34717,7 +34717,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q2" t="n">
-        <v>72.42488758362897</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34781,13 +34781,13 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
-        <v>329.8184039379206</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>501.1373443130644</v>
+        <v>461.4387329276361</v>
       </c>
       <c r="O3" t="n">
         <v>396.1615664486372</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>72.72580229576329</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>242.5660323684674</v>
@@ -34942,7 +34942,7 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M5" t="n">
-        <v>301.5242494965031</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N5" t="n">
         <v>382.1528875633492</v>
@@ -34954,7 +34954,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q5" t="n">
-        <v>95.38611483488586</v>
+        <v>72.4248875836292</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,10 +35018,10 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
-        <v>205.8958911082004</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M6" t="n">
-        <v>489.93268031336</v>
+        <v>180.529445502148</v>
       </c>
       <c r="N6" t="n">
         <v>501.1373443130644</v>
@@ -35030,10 +35030,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>60.86277427586479</v>
+        <v>7.787477306886596</v>
       </c>
       <c r="K9" t="n">
         <v>231.8086389496855</v>
@@ -35258,19 +35258,19 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
-        <v>200.061099507456</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
         <v>516.4299455789112</v>
       </c>
       <c r="O9" t="n">
-        <v>396.1615664486372</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,16 +35407,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>186.155967803972</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K11" t="n">
-        <v>355.9961978766761</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L11" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M11" t="n">
-        <v>506.6225017521927</v>
+        <v>510.6414445517319</v>
       </c>
       <c r="N11" t="n">
         <v>382.1528875633492</v>
@@ -35425,13 +35425,13 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P11" t="n">
-        <v>230.4615115717709</v>
+        <v>316.1744724113374</v>
       </c>
       <c r="Q11" t="n">
-        <v>95.38611483488586</v>
+        <v>208.8162803430946</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>23.69826186910353</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>231.8086389496855</v>
@@ -35501,13 +35501,13 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O12" t="n">
-        <v>396.1615664486372</v>
+        <v>344.0590310319744</v>
       </c>
       <c r="P12" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q12" t="n">
-        <v>46.39997291918311</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>53.9734993082397</v>
+        <v>53.97349930823972</v>
       </c>
       <c r="K13" t="n">
         <v>147.373789492697</v>
@@ -35586,7 +35586,7 @@
         <v>177.0346945265297</v>
       </c>
       <c r="Q13" t="n">
-        <v>75.27819757536085</v>
+        <v>75.27819757536086</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>182.1370250044328</v>
+        <v>186.155967803972</v>
       </c>
       <c r="K14" t="n">
-        <v>355.9961978766761</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L14" t="n">
         <v>351.3993667524709</v>
@@ -35656,19 +35656,19 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N14" t="n">
-        <v>495.583053071558</v>
+        <v>467.8658484029153</v>
       </c>
       <c r="O14" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P14" t="n">
-        <v>230.4615115717709</v>
+        <v>343.8916770799797</v>
       </c>
       <c r="Q14" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>23.69826186910358</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P15" t="n">
-        <v>192.1820835152469</v>
+        <v>192.1820835152474</v>
       </c>
       <c r="Q15" t="n">
         <v>159.3652826117113</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>53.97349930823973</v>
+        <v>53.97349930823976</v>
       </c>
       <c r="K16" t="n">
-        <v>147.373789492697</v>
+        <v>147.3737894926971</v>
       </c>
       <c r="L16" t="n">
         <v>215.0534780337234</v>
@@ -35820,10 +35820,10 @@
         <v>212.8883942917337</v>
       </c>
       <c r="P16" t="n">
-        <v>177.0346945265297</v>
+        <v>177.0346945265298</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.27819757536088</v>
+        <v>75.27819757536091</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2.594133936937197</v>
       </c>
       <c r="J17" t="n">
         <v>72.72580229576329</v>
@@ -35893,19 +35893,19 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N17" t="n">
-        <v>460.790023447083</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O17" t="n">
-        <v>481.7685996016776</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P17" t="n">
-        <v>230.4615115717709</v>
+        <v>306.5045135185682</v>
       </c>
       <c r="Q17" t="n">
-        <v>95.38611483488586</v>
+        <v>269.069275575115</v>
       </c>
       <c r="R17" t="n">
-        <v>83.95125710112401</v>
+        <v>83.95125710112396</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N18" t="n">
-        <v>516.4299455789112</v>
+        <v>403.4646358863839</v>
       </c>
       <c r="O18" t="n">
         <v>396.1615664486372</v>
@@ -35981,7 +35981,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
-        <v>46.39997291918311</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>2.594133936937254</v>
+        <v>2.594133936937197</v>
       </c>
       <c r="J20" t="n">
         <v>72.72580229576329</v>
@@ -36124,10 +36124,10 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L20" t="n">
-        <v>525.0825274927001</v>
+        <v>511.393625800392</v>
       </c>
       <c r="M20" t="n">
-        <v>397.2112790435232</v>
+        <v>570.8944397837523</v>
       </c>
       <c r="N20" t="n">
         <v>382.1528875633492</v>
@@ -36136,7 +36136,7 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P20" t="n">
-        <v>390.4557706196914</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q20" t="n">
         <v>95.38611483488586</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>231.8086389496855</v>
@@ -36218,7 +36218,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q21" t="n">
-        <v>46.39997291918311</v>
+        <v>107.2627471950487</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2.594133936937197</v>
       </c>
       <c r="J23" t="n">
         <v>72.72580229576329</v>
@@ -36361,25 +36361,25 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L23" t="n">
-        <v>430.0365026362045</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M23" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N23" t="n">
-        <v>555.8360483035784</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O23" t="n">
-        <v>308.0854388614484</v>
+        <v>384.1284408082457</v>
       </c>
       <c r="P23" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q23" t="n">
-        <v>95.38611483488586</v>
+        <v>269.069275575115</v>
       </c>
       <c r="R23" t="n">
-        <v>83.95125710112401</v>
+        <v>83.95125710112396</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K24" t="n">
         <v>231.8086389496855</v>
@@ -36443,7 +36443,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M24" t="n">
-        <v>437.8301448966972</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N24" t="n">
         <v>516.4299455789112</v>
@@ -36455,7 +36455,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.3652826117113</v>
+        <v>46.39997291918356</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>186.155967803972</v>
+        <v>136.2118285589216</v>
       </c>
       <c r="K26" t="n">
         <v>355.9961978766762</v>
@@ -36601,7 +36601,7 @@
         <v>464.8295322606797</v>
       </c>
       <c r="M26" t="n">
-        <v>460.6973053066805</v>
+        <v>510.6414445517319</v>
       </c>
       <c r="N26" t="n">
         <v>495.583053071558</v>
@@ -36616,7 +36616,7 @@
         <v>208.8162803430946</v>
       </c>
       <c r="R26" t="n">
-        <v>23.69826186910358</v>
+        <v>23.69826186910356</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>53.97349930823976</v>
+        <v>53.97349930823975</v>
       </c>
       <c r="K28" t="n">
-        <v>147.3737894926971</v>
+        <v>147.373789492697</v>
       </c>
       <c r="L28" t="n">
         <v>215.0534780337234</v>
@@ -36768,10 +36768,10 @@
         <v>212.8883942917337</v>
       </c>
       <c r="P28" t="n">
-        <v>177.0346945265298</v>
+        <v>177.0346945265297</v>
       </c>
       <c r="Q28" t="n">
-        <v>75.27819757536091</v>
+        <v>75.27819757536089</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>186.155967803972</v>
+        <v>136.2118285589218</v>
       </c>
       <c r="K29" t="n">
         <v>355.9961978766761</v>
@@ -36844,16 +36844,16 @@
         <v>495.583053071558</v>
       </c>
       <c r="O29" t="n">
-        <v>421.5156043696572</v>
+        <v>421.5156043696571</v>
       </c>
       <c r="P29" t="n">
-        <v>293.9475378349283</v>
+        <v>343.8916770799797</v>
       </c>
       <c r="Q29" t="n">
         <v>208.8162803430946</v>
       </c>
       <c r="R29" t="n">
-        <v>23.69826186910355</v>
+        <v>23.69826186910353</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>53.97349930823973</v>
+        <v>53.97349930823972</v>
       </c>
       <c r="K31" t="n">
         <v>147.373789492697</v>
@@ -36996,19 +36996,19 @@
         <v>215.0534780337234</v>
       </c>
       <c r="M31" t="n">
-        <v>232.615525233059</v>
+        <v>232.6155252330589</v>
       </c>
       <c r="N31" t="n">
         <v>233.0486925280071</v>
       </c>
       <c r="O31" t="n">
-        <v>212.8883942917337</v>
+        <v>212.8883942917336</v>
       </c>
       <c r="P31" t="n">
         <v>177.0346945265297</v>
       </c>
       <c r="Q31" t="n">
-        <v>75.27819757536088</v>
+        <v>75.27819757536086</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.4488103281666</v>
+        <v>83.02363214521425</v>
       </c>
       <c r="K32" t="n">
-        <v>386.7231141905272</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L32" t="n">
-        <v>495.5564485745307</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M32" t="n">
-        <v>541.3683608655829</v>
+        <v>541.3683608655828</v>
       </c>
       <c r="N32" t="n">
-        <v>526.309969385409</v>
+        <v>526.3099693854089</v>
       </c>
       <c r="O32" t="n">
-        <v>452.2425206835082</v>
+        <v>452.242520683508</v>
       </c>
       <c r="P32" t="n">
-        <v>230.4615115717709</v>
+        <v>374.6185933938306</v>
       </c>
       <c r="Q32" t="n">
-        <v>95.38611483488586</v>
+        <v>239.5431966569455</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.42517818295443</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37221,22 +37221,22 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1.396067868711356</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>84.70041562209062</v>
       </c>
       <c r="K34" t="n">
-        <v>33.9436239844883</v>
+        <v>178.1007058065479</v>
       </c>
       <c r="L34" t="n">
-        <v>101.6233125255146</v>
+        <v>181.0140960038852</v>
       </c>
       <c r="M34" t="n">
-        <v>263.34244154691</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N34" t="n">
-        <v>179.1006800997565</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O34" t="n">
         <v>99.45822878352493</v>
@@ -37245,7 +37245,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.0051138892119</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,25 +37303,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K35" t="n">
         <v>408.6950975109244</v>
       </c>
       <c r="L35" t="n">
-        <v>351.3993667524709</v>
+        <v>391.9809383818207</v>
       </c>
       <c r="M35" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N35" t="n">
-        <v>548.2819527058061</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O35" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P35" t="n">
-        <v>271.0430832011201</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q35" t="n">
         <v>95.38611483488586</v>
@@ -37479,10 +37479,10 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P37" t="n">
-        <v>110.2901458482739</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>46.68561682995292</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>238.8548674382202</v>
       </c>
       <c r="K38" t="n">
-        <v>408.6950975109244</v>
+        <v>283.1476039978166</v>
       </c>
       <c r="L38" t="n">
-        <v>468.3780998851714</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M38" t="n">
-        <v>397.2112790435232</v>
+        <v>563.3403441859801</v>
       </c>
       <c r="N38" t="n">
         <v>382.1528875633492</v>
@@ -37564,7 +37564,7 @@
         <v>95.38611483488586</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37631,7 +37631,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N39" t="n">
-        <v>516.4299455789106</v>
+        <v>516.4299455789111</v>
       </c>
       <c r="O39" t="n">
         <v>396.1615664486372</v>
@@ -37686,7 +37686,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>15.17321671797629</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M40" t="n">
-        <v>165.8709765548032</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N40" t="n">
         <v>119.6185270197983</v>
@@ -37719,7 +37719,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>31.5124001119767</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>189.7045354284641</v>
+        <v>113.3073739251127</v>
       </c>
       <c r="K41" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L41" t="n">
-        <v>351.3993667524709</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M41" t="n">
-        <v>563.3403441859801</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N41" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O41" t="n">
-        <v>474.2145040039054</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P41" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q41" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.86277427586489</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K42" t="n">
         <v>231.8086389496855</v>
@@ -37929,7 +37929,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>8.350146373938031</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -37956,10 +37956,10 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q43" t="n">
-        <v>38.33547045601496</v>
+        <v>28.58311525926155</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>18.10250157069137</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38017,28 +38017,28 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K44" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L44" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M44" t="n">
-        <v>514.1900121762241</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N44" t="n">
-        <v>382.1528875633492</v>
+        <v>422.7344591926987</v>
       </c>
       <c r="O44" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P44" t="n">
-        <v>230.4615115717709</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q44" t="n">
         <v>261.5151799773428</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.3652826117113</v>
+        <v>159.3652826117107</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38154,7 +38154,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>14.58789090194205</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>66.04134991249921</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L46" t="n">
         <v>101.6233125255146</v>
@@ -38193,7 +38193,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>46.68561682995292</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
